--- a/data-extra/ira_comparison_raw/ira_comparison.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcole\Documents\LEEP\LEEP\data-raw\model-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcole\Documents\LEEP\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35394F0C-9615-4EC4-A952-B5B5018B94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB0C876-B172-4C6A-84A0-BB422EB45156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="31500" windowHeight="18870" tabRatio="811" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="6180" yWindow="3645" windowWidth="18900" windowHeight="11160" tabRatio="811" firstSheet="6" activeTab="9" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="14" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="SO2" sheetId="11" r:id="rId7"/>
     <sheet name="Fossil Fuel Consumption" sheetId="12" r:id="rId8"/>
     <sheet name="Generation and Capacity" sheetId="13" r:id="rId9"/>
+    <sheet name="Transport" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Emissions!$A$1:$J$1</definedName>
@@ -38,8 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="82">
   <si>
     <t>IRA</t>
   </si>
@@ -291,15 +290,26 @@
   <si>
     <t>Fossil Consumption - Coal</t>
   </si>
+  <si>
+    <t>EV Sales Share (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,10 +347,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -348,9 +359,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4841588-1144-4254-A6CA-35B7E11E9166}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,12 +690,407 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D981084-6130-4561-90E5-4664881F4439}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F1">
+        <v>2030</v>
+      </c>
+      <c r="G1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.15271899999999999</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.34128179999999997</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.361236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.18899999999999997</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.42700000000000005</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9.792107402116626E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.31698236573586602</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.30062274667076816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.1797</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.5353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.8145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.1484036</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.29292699999999999</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.35405660000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="8">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.114</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.1146303343999167</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.22097885890187796</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.29428409521239485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.1648</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.43259999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="8">
+        <v>6.4371803214039236E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.4274</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.58609999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA7B03-7E95-44A8-8E57-7EF481135E5D}">
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20527,7 +20938,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23758,11 +24169,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24183,7 +24589,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -24225,24 +24645,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24265,7 +24668,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -24284,12 +24703,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-extra/ira_comparison_raw/ira_comparison.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcole\Documents\LEEP\LEEP\data-extra\ira_comparison_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\Git Repos\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB0C876-B172-4C6A-84A0-BB422EB45156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FFA918-CEB9-4F97-8A6D-8C96E71C6CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3645" windowWidth="18900" windowHeight="11160" tabRatio="811" firstSheet="6" activeTab="9" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="811" activeTab="1" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="14" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Transport" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Emissions!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Emissions!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -351,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -363,6 +363,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D981084-6130-4561-90E5-4664881F4439}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1087,22 +1090,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA7B03-7E95-44A8-8E57-7EF481135E5D}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.42578125" style="3" customWidth="1"/>
+    <col min="6" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1112,29 +1118,35 @@
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="11">
         <v>2025</v>
       </c>
-      <c r="E1">
+      <c r="G1" s="11">
         <v>2030</v>
       </c>
-      <c r="F1">
+      <c r="H1" s="11">
         <v>2035</v>
       </c>
-      <c r="G1">
+      <c r="I1" s="11">
         <v>2040</v>
       </c>
-      <c r="H1">
+      <c r="J1" s="11">
         <v>2045</v>
       </c>
-      <c r="I1">
+      <c r="K1" s="11">
         <v>2050</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1144,445 +1156,547 @@
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
+        <v>586</v>
+      </c>
+      <c r="E2" s="3">
+        <v>559</v>
+      </c>
+      <c r="F2" s="2">
         <v>549.43600000000004</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>525.17599999999993</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>511.95400000000006</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>512.601</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>513.65</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>513.73500000000001</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2">
-        <v>562.90100000000007</v>
-      </c>
-      <c r="E3" s="2">
-        <v>557.61699999999996</v>
+      <c r="D3" s="3">
+        <v>586</v>
+      </c>
+      <c r="E3" s="3">
+        <v>559</v>
       </c>
       <c r="F3" s="2">
-        <v>550.90200000000004</v>
+        <v>500.22714331620102</v>
       </c>
       <c r="G3" s="2">
-        <v>547.56399999999996</v>
+        <v>454.81527759807699</v>
       </c>
       <c r="H3" s="2">
-        <v>544.83199999999999</v>
-      </c>
-      <c r="I3" s="2">
-        <v>542.00099999999998</v>
-      </c>
-      <c r="J3" s="3" t="s">
+        <v>446.248934102666</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="2">
-        <v>500.22714331620102</v>
-      </c>
-      <c r="E4" s="2">
-        <v>454.81527759807699</v>
-      </c>
-      <c r="F4" s="2">
-        <v>446.248934102666</v>
-      </c>
+      <c r="D4" s="3">
+        <v>586</v>
+      </c>
+      <c r="E4" s="3">
+        <v>559</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="2">
-        <v>542.16163521438705</v>
-      </c>
-      <c r="E5" s="2">
-        <v>533.53721470085202</v>
-      </c>
-      <c r="F5" s="2">
-        <v>504.03872077018599</v>
-      </c>
+      <c r="D5" s="3">
+        <v>586</v>
+      </c>
+      <c r="E5" s="3">
+        <v>559</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>586</v>
+      </c>
+      <c r="E6" s="3">
+        <v>559</v>
+      </c>
+      <c r="F6" s="2">
+        <v>334.04</v>
+      </c>
+      <c r="G6" s="2">
+        <v>286.58</v>
+      </c>
+      <c r="H6" s="2">
+        <v>273.55</v>
+      </c>
+      <c r="I6" s="2">
+        <v>271.20999999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <v>275.27999999999997</v>
+      </c>
+      <c r="K6" s="2">
+        <v>276.94</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="3">
+        <v>586</v>
+      </c>
+      <c r="E7" s="3">
+        <v>559</v>
+      </c>
+      <c r="F7" s="2">
+        <v>572.61022399999877</v>
+      </c>
+      <c r="G7" s="2">
+        <v>571.0736249999992</v>
+      </c>
+      <c r="H7" s="2">
+        <v>561.91441599999894</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="3">
+        <v>586</v>
+      </c>
+      <c r="E8" s="3">
+        <v>559</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>586</v>
+      </c>
+      <c r="E9" s="3">
+        <v>559</v>
+      </c>
+      <c r="F9" s="2">
+        <v>523.33655237976097</v>
+      </c>
+      <c r="G9" s="2">
+        <v>491.90305488677882</v>
+      </c>
+      <c r="H9" s="2">
+        <v>468.54095976483626</v>
+      </c>
+      <c r="I9" s="2">
+        <v>450.70349699079168</v>
+      </c>
+      <c r="J9" s="2">
+        <v>425.51363760393178</v>
+      </c>
+      <c r="K9" s="2">
+        <v>400.8608308613276</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="2">
-        <v>334.04</v>
-      </c>
-      <c r="E10" s="2">
-        <v>286.58</v>
+      <c r="D10" s="3">
+        <v>586</v>
+      </c>
+      <c r="E10" s="3">
+        <v>559</v>
       </c>
       <c r="F10" s="2">
-        <v>273.55</v>
+        <v>641.5</v>
       </c>
       <c r="G10" s="2">
-        <v>271.20999999999998</v>
+        <v>590</v>
       </c>
       <c r="H10" s="2">
-        <v>275.27999999999997</v>
+        <v>531</v>
       </c>
       <c r="I10" s="2">
-        <v>276.94</v>
-      </c>
-      <c r="J10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="J10" s="2">
+        <v>485.5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>479</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2">
-        <v>327.8</v>
-      </c>
-      <c r="E11" s="2">
-        <v>278.08</v>
+      <c r="D11" s="3">
+        <v>586</v>
+      </c>
+      <c r="E11" s="3">
+        <v>559</v>
       </c>
       <c r="F11" s="2">
-        <v>274.45</v>
+        <v>562.90100000000007</v>
       </c>
       <c r="G11" s="2">
-        <v>276.64999999999998</v>
+        <v>557.61699999999996</v>
       </c>
       <c r="H11" s="2">
-        <v>283.31</v>
+        <v>550.90200000000004</v>
       </c>
       <c r="I11" s="2">
-        <v>281.81</v>
-      </c>
-      <c r="J11" s="3" t="s">
+        <v>547.56399999999996</v>
+      </c>
+      <c r="J11" s="2">
+        <v>544.83199999999999</v>
+      </c>
+      <c r="K11" s="2">
+        <v>542.00099999999998</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2">
-        <v>572.61022399999877</v>
-      </c>
-      <c r="E12" s="2">
-        <v>571.0736249999992</v>
+      <c r="D12" s="3">
+        <v>586</v>
+      </c>
+      <c r="E12" s="3">
+        <v>559</v>
       </c>
       <c r="F12" s="2">
-        <v>561.91441599999894</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>542.16163521438705</v>
+      </c>
+      <c r="G12" s="2">
+        <v>533.53721470085202</v>
+      </c>
+      <c r="H12" s="2">
+        <v>504.03872077018599</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2">
-        <v>576.09925099999884</v>
-      </c>
-      <c r="E13" s="2">
-        <v>571.50176699999884</v>
-      </c>
-      <c r="F13" s="2">
-        <v>565.6639759999988</v>
-      </c>
+      <c r="D13" s="3">
+        <v>586</v>
+      </c>
+      <c r="E13" s="3">
+        <v>559</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="3">
+        <v>586</v>
+      </c>
+      <c r="E14" s="3">
+        <v>559</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>586</v>
+      </c>
+      <c r="E15" s="3">
+        <v>559</v>
+      </c>
+      <c r="F15" s="2">
+        <v>327.8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>278.08</v>
+      </c>
+      <c r="H15" s="2">
+        <v>274.45</v>
+      </c>
+      <c r="I15" s="2">
+        <v>276.64999999999998</v>
+      </c>
+      <c r="J15" s="2">
+        <v>283.31</v>
+      </c>
+      <c r="K15" s="2">
+        <v>281.81</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2">
-        <v>523.33655237976097</v>
-      </c>
-      <c r="E16" s="2">
-        <v>491.90305488677882</v>
+      <c r="D16" s="3">
+        <v>586</v>
+      </c>
+      <c r="E16" s="3">
+        <v>559</v>
       </c>
       <c r="F16" s="2">
-        <v>468.54095976483626</v>
+        <v>576.09925099999884</v>
       </c>
       <c r="G16" s="2">
-        <v>450.70349699079168</v>
+        <v>571.50176699999884</v>
       </c>
       <c r="H16" s="2">
-        <v>425.51363760393178</v>
-      </c>
-      <c r="I16" s="2">
-        <v>400.8608308613276</v>
-      </c>
-      <c r="J16" s="3" t="s">
+        <v>565.6639759999988</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2">
-        <v>536.1788827271165</v>
-      </c>
-      <c r="E17" s="2">
-        <v>516.52429176034491</v>
-      </c>
-      <c r="F17" s="2">
-        <v>494.91871570262163</v>
-      </c>
-      <c r="G17" s="2">
-        <v>475.50114055458266</v>
-      </c>
-      <c r="H17" s="2">
-        <v>454.50511135633172</v>
-      </c>
-      <c r="I17" s="2">
-        <v>430.56817312125855</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="D17" s="3">
+        <v>586</v>
+      </c>
+      <c r="E17" s="3">
+        <v>559</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2">
-        <v>641.5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>590</v>
+      <c r="D18" s="3">
+        <v>586</v>
+      </c>
+      <c r="E18" s="3">
+        <v>559</v>
       </c>
       <c r="F18" s="2">
-        <v>531</v>
+        <v>536.1788827271165</v>
       </c>
       <c r="G18" s="2">
-        <v>492</v>
+        <v>516.52429176034491</v>
       </c>
       <c r="H18" s="2">
-        <v>485.5</v>
+        <v>494.91871570262163</v>
       </c>
       <c r="I18" s="2">
-        <v>479</v>
-      </c>
-      <c r="J18" s="3" t="s">
+        <v>475.50114055458266</v>
+      </c>
+      <c r="J18" s="2">
+        <v>454.50511135633172</v>
+      </c>
+      <c r="K18" s="2">
+        <v>430.56817312125855</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1592,29 +1706,35 @@
       <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
+        <v>586</v>
+      </c>
+      <c r="E19" s="3">
+        <v>559</v>
+      </c>
+      <c r="F19" s="2">
         <v>649</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>638</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H19" s="2">
         <v>630</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>626</v>
       </c>
-      <c r="H19" s="2">
+      <c r="J19" s="2">
         <v>632.5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>639</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1624,505 +1744,607 @@
       <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1551</v>
+      </c>
+      <c r="F20" s="2">
         <v>1189.6600000000001</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>602.70000000000005</v>
       </c>
-      <c r="F20" s="2">
+      <c r="H20" s="2">
         <v>336.702</v>
       </c>
-      <c r="G20" s="2">
+      <c r="I20" s="2">
         <v>242.48699999999999</v>
       </c>
-      <c r="H20" s="2">
+      <c r="J20" s="2">
         <v>290.31200000000001</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>395.06900000000002</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="2">
-        <v>1350.69</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1201.47</v>
+      <c r="D21" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1551</v>
       </c>
       <c r="F21" s="2">
-        <v>1198.69</v>
+        <v>1001.2398840439701</v>
       </c>
       <c r="G21" s="2">
-        <v>1212.21</v>
+        <v>679.65905481321704</v>
       </c>
       <c r="H21" s="2">
-        <v>1222.54</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1247.8399999999999</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>445.58029832678199</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2">
-        <v>1001.2398840439701</v>
-      </c>
-      <c r="E22" s="2">
-        <v>679.65905481321704</v>
+      <c r="D22" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1551</v>
       </c>
       <c r="F22" s="2">
-        <v>445.58029832678199</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3" t="s">
+        <v>1026.9027019476468</v>
+      </c>
+      <c r="G22" s="2">
+        <v>750.56867651651953</v>
+      </c>
+      <c r="H22" s="2">
+        <v>720.81252272188499</v>
+      </c>
+      <c r="I22" s="2">
+        <v>698.08684987044978</v>
+      </c>
+      <c r="J22" s="2">
+        <v>697.99268063534714</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="2">
-        <v>1325.31758286476</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1274.9102826731701</v>
+      <c r="D23" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1551</v>
       </c>
       <c r="F23" s="2">
-        <v>1293.1152861035</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3" t="s">
+        <v>1176.7889391168976</v>
+      </c>
+      <c r="G23" s="2">
+        <v>827.38919856090286</v>
+      </c>
+      <c r="H23" s="2">
+        <v>772.50801255051329</v>
+      </c>
+      <c r="I23" s="2">
+        <v>581.1495940282224</v>
+      </c>
+      <c r="J23" s="2">
+        <v>44.967299935722082</v>
+      </c>
+      <c r="K23" s="2">
+        <v>62.07014793075404</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="2">
-        <v>1026.9027019476468</v>
-      </c>
-      <c r="E24" s="2">
-        <v>750.56867651651953</v>
+      <c r="D24" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1551</v>
       </c>
       <c r="F24" s="2">
-        <v>720.81252272188499</v>
+        <v>1414.48</v>
       </c>
       <c r="G24" s="2">
-        <v>698.08684987044978</v>
+        <v>1310.53</v>
       </c>
       <c r="H24" s="2">
-        <v>697.99268063534714</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3" t="s">
+        <v>824.71</v>
+      </c>
+      <c r="I24" s="2">
+        <v>704.1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>561.29</v>
+      </c>
+      <c r="K24" s="2">
+        <v>502.46</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="2">
-        <v>1342.1794057015618</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1238.9451360211647</v>
+      <c r="D25" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1551</v>
       </c>
       <c r="F25" s="2">
-        <v>1101.8962856131254</v>
+        <v>1194.845278180504</v>
       </c>
       <c r="G25" s="2">
-        <v>1122.9320429063562</v>
+        <v>482.81984665287968</v>
       </c>
       <c r="H25" s="2">
-        <v>1159.1498962816902</v>
+        <v>588.5355894123727</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="2">
-        <v>1176.7889391168976</v>
-      </c>
-      <c r="E26" s="2">
-        <v>827.38919856090286</v>
+      <c r="D26" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1551</v>
       </c>
       <c r="F26" s="2">
-        <v>772.50801255051329</v>
+        <v>1288.91053546785</v>
       </c>
       <c r="G26" s="2">
-        <v>581.1495940282224</v>
+        <v>524.45551767224401</v>
       </c>
       <c r="H26" s="2">
-        <v>44.967299935722082</v>
+        <v>395.15424089773296</v>
       </c>
       <c r="I26" s="2">
-        <v>62.07014793075404</v>
-      </c>
-      <c r="J26" s="3" t="s">
+        <v>460.02850996266903</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2">
-        <v>1109.4161928177652</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1075.9223286126758</v>
+      <c r="D27" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1551</v>
       </c>
       <c r="F27" s="2">
-        <v>1079.8800516325127</v>
+        <v>1325.9085100834352</v>
       </c>
       <c r="G27" s="2">
-        <v>772.01139602165301</v>
+        <v>999.66625419476827</v>
       </c>
       <c r="H27" s="2">
-        <v>663.41107629102942</v>
+        <v>500.03751964597006</v>
       </c>
       <c r="I27" s="2">
-        <v>598.25432344749174</v>
-      </c>
-      <c r="J27" s="3" t="s">
+        <v>581.58989714842926</v>
+      </c>
+      <c r="J27" s="2">
+        <v>399.14153124775396</v>
+      </c>
+      <c r="K27" s="2">
+        <v>415.69533935001493</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="2">
-        <v>1414.48</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1310.53</v>
+      <c r="D28" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1551</v>
       </c>
       <c r="F28" s="2">
-        <v>824.71</v>
+        <v>1462</v>
       </c>
       <c r="G28" s="2">
-        <v>704.1</v>
+        <v>743</v>
       </c>
       <c r="H28" s="2">
-        <v>561.29</v>
+        <v>368</v>
       </c>
       <c r="I28" s="2">
-        <v>502.46</v>
-      </c>
-      <c r="J28" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="J28" s="2">
+        <v>661</v>
+      </c>
+      <c r="K28" s="2">
+        <v>774</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="2">
-        <v>1377.84</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1379.59</v>
+      <c r="D29" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1551</v>
       </c>
       <c r="F29" s="2">
-        <v>1430.05</v>
+        <v>1350.69</v>
       </c>
       <c r="G29" s="2">
-        <v>1440.31</v>
+        <v>1201.47</v>
       </c>
       <c r="H29" s="2">
-        <v>1473.6</v>
+        <v>1198.69</v>
       </c>
       <c r="I29" s="2">
-        <v>1528.36</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>1212.21</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1222.54</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1247.8399999999999</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="2">
-        <v>1194.845278180504</v>
-      </c>
-      <c r="E30" s="2">
-        <v>482.81984665287968</v>
+      <c r="D30" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1551</v>
       </c>
       <c r="F30" s="2">
-        <v>588.5355894123727</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+        <v>1325.31758286476</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1274.9102826731701</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1293.1152861035</v>
+      </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="2">
-        <v>1090.61392148052</v>
-      </c>
-      <c r="E31" s="2">
-        <v>979.59857204458103</v>
+      <c r="D31" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1551</v>
       </c>
       <c r="F31" s="2">
-        <v>906.24422783061641</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3" t="s">
+        <v>1342.1794057015618</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1238.9451360211647</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1101.8962856131254</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1122.9320429063562</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1159.1498962816902</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="2">
-        <v>1288.91053546785</v>
-      </c>
-      <c r="E32" s="2">
-        <v>524.45551767224401</v>
+      <c r="D32" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1551</v>
       </c>
       <c r="F32" s="2">
-        <v>395.15424089773296</v>
+        <v>1109.4161928177652</v>
       </c>
       <c r="G32" s="2">
-        <v>460.02850996266903</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="3" t="s">
+        <v>1075.9223286126758</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1079.8800516325127</v>
+      </c>
+      <c r="I32" s="2">
+        <v>772.01139602165301</v>
+      </c>
+      <c r="J32" s="2">
+        <v>663.41107629102942</v>
+      </c>
+      <c r="K32" s="2">
+        <v>598.25432344749174</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="2">
-        <v>1522.1899717787901</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1384.1326009490399</v>
+      <c r="D33" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1551</v>
       </c>
       <c r="F33" s="2">
-        <v>1342.3774000318401</v>
+        <v>1377.84</v>
       </c>
       <c r="G33" s="2">
-        <v>1321.9670146753799</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="3" t="s">
+        <v>1379.59</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1430.05</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1440.31</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1473.6</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1528.36</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="2">
-        <v>1325.9085100834352</v>
-      </c>
-      <c r="E34" s="2">
-        <v>999.66625419476827</v>
+      <c r="D34" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1551</v>
       </c>
       <c r="F34" s="2">
-        <v>500.03751964597006</v>
+        <v>1090.61392148052</v>
       </c>
       <c r="G34" s="2">
-        <v>581.58989714842926</v>
+        <v>979.59857204458103</v>
       </c>
       <c r="H34" s="2">
-        <v>399.14153124775396</v>
-      </c>
-      <c r="I34" s="2">
-        <v>415.69533935001493</v>
-      </c>
-      <c r="J34" s="3" t="s">
+        <v>906.24422783061641</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="2">
-        <v>1338.3658881070323</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1125.0574146028951</v>
+      <c r="D35" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1551</v>
       </c>
       <c r="F35" s="2">
-        <v>1097.1503547342222</v>
+        <v>1522.1899717787901</v>
       </c>
       <c r="G35" s="2">
-        <v>1231.5110881855478</v>
+        <v>1384.1326009490399</v>
       </c>
       <c r="H35" s="2">
-        <v>1135.1038861994789</v>
+        <v>1342.3774000318401</v>
       </c>
       <c r="I35" s="2">
-        <v>1000.4238031946613</v>
-      </c>
-      <c r="J35" s="3" t="s">
+        <v>1321.9670146753799</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="2">
-        <v>1462</v>
-      </c>
-      <c r="E36" s="2">
-        <v>743</v>
+      <c r="D36" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1551</v>
       </c>
       <c r="F36" s="2">
-        <v>368</v>
+        <v>1338.3658881070323</v>
       </c>
       <c r="G36" s="2">
-        <v>548</v>
+        <v>1125.0574146028951</v>
       </c>
       <c r="H36" s="2">
-        <v>661</v>
+        <v>1097.1503547342222</v>
       </c>
       <c r="I36" s="2">
-        <v>774</v>
-      </c>
-      <c r="J36" s="3" t="s">
+        <v>1231.5110881855478</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1135.1038861994789</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1000.4238031946613</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -2132,29 +2354,35 @@
       <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1551</v>
+      </c>
+      <c r="F37" s="2">
         <v>1437.5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>981</v>
       </c>
-      <c r="F37" s="2">
+      <c r="H37" s="2">
         <v>775</v>
       </c>
-      <c r="G37" s="2">
+      <c r="I37" s="2">
         <v>742</v>
       </c>
-      <c r="H37" s="2">
+      <c r="J37" s="2">
         <v>737.5</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>733</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -2164,445 +2392,547 @@
       <c r="C38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F38" s="2">
         <v>886.70855899999992</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>838.78235799999993</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>753.26573300000007</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>773.54126900000006</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>794.32240400000001</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>821.72208999999987</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="2">
-        <v>850.86987999999997</v>
-      </c>
-      <c r="E39" s="2">
-        <v>845.24494000000004</v>
+      <c r="D39" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>777.34664804469276</v>
       </c>
       <c r="F39" s="2">
-        <v>835.90833999999995</v>
+        <v>1072.28115139338</v>
       </c>
       <c r="G39" s="2">
-        <v>851.49550999999997</v>
+        <v>1015.73661606983</v>
       </c>
       <c r="H39" s="2">
-        <v>866.28559000000007</v>
-      </c>
-      <c r="I39" s="2">
-        <v>887.55632000000003</v>
-      </c>
-      <c r="J39" s="3" t="s">
+        <v>1063.6926035448</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2">
-        <v>1072.28115139338</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1015.73661606983</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1063.6926035448</v>
-      </c>
+      <c r="D40" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="2">
-        <v>1180.17816204515</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1208.9941191565199</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1222.12174799319</v>
-      </c>
+      <c r="D41" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1054.69</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1096.26</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1111.22</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1130.2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1141.1300000000001</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1167.05</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="D43" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F43" s="2">
+        <v>813.9250963432828</v>
+      </c>
+      <c r="G43" s="2">
+        <v>815.4119260782594</v>
+      </c>
+      <c r="H43" s="2">
+        <v>702.81426574292493</v>
+      </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>777.34664804469276</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F45" s="2">
+        <v>923.51570682181114</v>
+      </c>
+      <c r="G45" s="2">
+        <v>929.87779969934127</v>
+      </c>
+      <c r="H45" s="2">
+        <v>863.9506377418968</v>
+      </c>
+      <c r="I45" s="2">
+        <v>810.55248008097146</v>
+      </c>
+      <c r="J45" s="2">
+        <v>736.99812683475989</v>
+      </c>
+      <c r="K45" s="2">
+        <v>685.1548082249933</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="2">
-        <v>1054.69</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1096.26</v>
+      <c r="D46" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>777.34664804469276</v>
       </c>
       <c r="F46" s="2">
-        <v>1111.22</v>
+        <v>777</v>
       </c>
       <c r="G46" s="2">
-        <v>1130.2</v>
+        <v>737</v>
       </c>
       <c r="H46" s="2">
-        <v>1141.1300000000001</v>
+        <v>610</v>
       </c>
       <c r="I46" s="2">
-        <v>1167.05</v>
-      </c>
-      <c r="J46" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="J46" s="2">
+        <v>684.5</v>
+      </c>
+      <c r="K46" s="2">
+        <v>716</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="2">
-        <v>1063.06</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1090.3499999999999</v>
+      <c r="D47" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>777.34664804469276</v>
       </c>
       <c r="F47" s="2">
-        <v>1134.03</v>
+        <v>850.86987999999997</v>
       </c>
       <c r="G47" s="2">
-        <v>1188.4100000000001</v>
+        <v>845.24494000000004</v>
       </c>
       <c r="H47" s="2">
-        <v>1227.2</v>
+        <v>835.90833999999995</v>
       </c>
       <c r="I47" s="2">
-        <v>1280.8399999999999</v>
-      </c>
-      <c r="J47" s="3" t="s">
+        <v>851.49550999999997</v>
+      </c>
+      <c r="J47" s="2">
+        <v>866.28559000000007</v>
+      </c>
+      <c r="K47" s="2">
+        <v>887.55632000000003</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="2">
-        <v>813.9250963432828</v>
-      </c>
-      <c r="E48" s="2">
-        <v>815.4119260782594</v>
+      <c r="D48" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>777.34664804469276</v>
       </c>
       <c r="F48" s="2">
-        <v>702.81426574292493</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+        <v>1180.17816204515</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1208.9941191565199</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1222.12174799319</v>
+      </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="2">
-        <v>813.89512670971533</v>
-      </c>
-      <c r="E49" s="2">
-        <v>822.69368187542625</v>
-      </c>
-      <c r="F49" s="2">
-        <v>827.1127708460441</v>
-      </c>
+      <c r="D49" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>777.34664804469276</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="3" t="s">
+      <c r="D51" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E51" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1063.06</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1090.3499999999999</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1134.03</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1188.4100000000001</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1227.2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1280.8399999999999</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="2">
-        <v>923.51570682181114</v>
-      </c>
-      <c r="E52" s="2">
-        <v>929.87779969934127</v>
+      <c r="D52" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>777.34664804469276</v>
       </c>
       <c r="F52" s="2">
-        <v>863.9506377418968</v>
+        <v>813.89512670971533</v>
       </c>
       <c r="G52" s="2">
-        <v>810.55248008097146</v>
+        <v>822.69368187542625</v>
       </c>
       <c r="H52" s="2">
-        <v>736.99812683475989</v>
-      </c>
-      <c r="I52" s="2">
-        <v>685.1548082249933</v>
-      </c>
-      <c r="J52" s="3" t="s">
+        <v>827.1127708460441</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="2">
-        <v>933.81245031708181</v>
-      </c>
-      <c r="E53" s="2">
-        <v>945.37163737842252</v>
-      </c>
-      <c r="F53" s="2">
-        <v>912.41925868373892</v>
-      </c>
-      <c r="G53" s="2">
-        <v>890.08884322262679</v>
-      </c>
-      <c r="H53" s="2">
-        <v>855.10405365089196</v>
-      </c>
-      <c r="I53" s="2">
-        <v>810.21700559869782</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="D53" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E53" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="2">
-        <v>777</v>
-      </c>
-      <c r="E54" s="2">
-        <v>737</v>
+      <c r="D54" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>777.34664804469276</v>
       </c>
       <c r="F54" s="2">
-        <v>610</v>
+        <v>933.81245031708181</v>
       </c>
       <c r="G54" s="2">
-        <v>653</v>
+        <v>945.37163737842252</v>
       </c>
       <c r="H54" s="2">
-        <v>684.5</v>
+        <v>912.41925868373892</v>
       </c>
       <c r="I54" s="2">
-        <v>716</v>
-      </c>
-      <c r="J54" s="3" t="s">
+        <v>890.08884322262679</v>
+      </c>
+      <c r="J54" s="2">
+        <v>855.10405365089196</v>
+      </c>
+      <c r="K54" s="2">
+        <v>810.21700559869782</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -2612,29 +2942,35 @@
       <c r="C55" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E55" s="3">
+        <v>777.34664804469276</v>
+      </c>
+      <c r="F55" s="2">
         <v>815.5</v>
       </c>
-      <c r="E55" s="2">
+      <c r="G55" s="2">
         <v>833</v>
       </c>
-      <c r="F55" s="2">
+      <c r="H55" s="2">
         <v>847</v>
       </c>
-      <c r="G55" s="2">
+      <c r="I55" s="2">
         <v>875</v>
       </c>
-      <c r="H55" s="2">
+      <c r="J55" s="2">
         <v>902.5</v>
       </c>
-      <c r="I55" s="2">
+      <c r="K55" s="2">
         <v>930</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -2644,409 +2980,409 @@
       <c r="C56" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="2">
+      <c r="F56" s="2">
         <v>322.448421</v>
       </c>
-      <c r="E56" s="2">
+      <c r="G56" s="2">
         <v>301.96762200000001</v>
       </c>
-      <c r="F56" s="2">
+      <c r="H56" s="2">
         <v>288.72626700000001</v>
       </c>
-      <c r="G56" s="2">
+      <c r="I56" s="2">
         <v>307.68203099999999</v>
       </c>
-      <c r="H56" s="2">
+      <c r="J56" s="2">
         <v>329.333596</v>
       </c>
-      <c r="I56" s="2">
+      <c r="K56" s="2">
         <v>348.92210999999998</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="2">
-        <v>381.55261999999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>369.25815999999998</v>
-      </c>
       <c r="F57" s="2">
-        <v>355.00466</v>
+        <v>30.956566780282579</v>
       </c>
       <c r="G57" s="2">
-        <v>373.61138999999997</v>
+        <v>27.760581674310799</v>
       </c>
       <c r="H57" s="2">
-        <v>391.79890999999998</v>
-      </c>
-      <c r="I57" s="2">
-        <v>407.80137999999999</v>
-      </c>
-      <c r="J57" s="3" t="s">
+        <v>26.65</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="2">
-        <v>30.956566780282579</v>
-      </c>
-      <c r="E58" s="2">
-        <v>27.760581674310799</v>
-      </c>
-      <c r="F58" s="2">
-        <v>26.65</v>
-      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="2">
-        <v>34.015854017626879</v>
-      </c>
-      <c r="E59" s="2">
-        <v>33.403067220462006</v>
-      </c>
-      <c r="F59" s="2">
-        <v>32.764189726203355</v>
-      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="3" t="s">
+      <c r="F60" s="2">
+        <v>22.32</v>
+      </c>
+      <c r="G60" s="2">
+        <v>29.76</v>
+      </c>
+      <c r="H60" s="2">
+        <v>29.28</v>
+      </c>
+      <c r="I60" s="2">
+        <v>29.24</v>
+      </c>
+      <c r="J60" s="2">
+        <v>30.01</v>
+      </c>
+      <c r="K60" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="F61" s="2">
+        <v>399.47695543109927</v>
+      </c>
+      <c r="G61" s="2">
+        <v>369.45717083484851</v>
+      </c>
+      <c r="H61" s="2">
+        <v>373.2693249801506</v>
+      </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="2">
-        <v>22.32</v>
-      </c>
-      <c r="E64" s="2">
-        <v>29.76</v>
-      </c>
-      <c r="F64" s="2">
-        <v>29.28</v>
-      </c>
-      <c r="G64" s="2">
-        <v>29.24</v>
-      </c>
-      <c r="H64" s="2">
-        <v>30.01</v>
-      </c>
-      <c r="I64" s="2">
-        <v>29.9</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="2">
-        <v>22.29</v>
-      </c>
-      <c r="E65" s="2">
-        <v>29.54</v>
-      </c>
       <c r="F65" s="2">
-        <v>29.53</v>
+        <v>381.55261999999999</v>
       </c>
       <c r="G65" s="2">
-        <v>29.78</v>
+        <v>369.25815999999998</v>
       </c>
       <c r="H65" s="2">
-        <v>31.41</v>
+        <v>355.00466</v>
       </c>
       <c r="I65" s="2">
-        <v>32.06</v>
-      </c>
-      <c r="J65" s="3" t="s">
+        <v>373.61138999999997</v>
+      </c>
+      <c r="J65" s="2">
+        <v>391.79890999999998</v>
+      </c>
+      <c r="K65" s="2">
+        <v>407.80137999999999</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="2">
-        <v>399.47695543109927</v>
-      </c>
-      <c r="E66" s="2">
-        <v>369.45717083484851</v>
-      </c>
       <c r="F66" s="2">
-        <v>373.2693249801506</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+        <v>34.015854017626879</v>
+      </c>
+      <c r="G66" s="2">
+        <v>33.403067220462006</v>
+      </c>
+      <c r="H66" s="2">
+        <v>32.764189726203355</v>
+      </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="2">
-        <v>399.76405682130263</v>
-      </c>
-      <c r="E67" s="2">
-        <v>382.34437721128165</v>
-      </c>
-      <c r="F67" s="2">
-        <v>385.06488072230201</v>
-      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="3" t="s">
+      <c r="F69" s="2">
+        <v>22.29</v>
+      </c>
+      <c r="G69" s="2">
+        <v>29.54</v>
+      </c>
+      <c r="H69" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="I69" s="2">
+        <v>29.78</v>
+      </c>
+      <c r="J69" s="2">
+        <v>31.41</v>
+      </c>
+      <c r="K69" s="2">
+        <v>32.06</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="2">
+        <v>399.76405682130263</v>
+      </c>
+      <c r="G70" s="2">
+        <v>382.34437721128165</v>
+      </c>
+      <c r="H70" s="2">
+        <v>385.06488072230201</v>
+      </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
@@ -3056,17 +3392,17 @@
       <c r="C73" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -3076,385 +3412,487 @@
       <c r="C74" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E74" s="3">
+        <v>412.92289457484895</v>
+      </c>
+      <c r="F74" s="2">
         <v>10.12312</v>
       </c>
-      <c r="E74" s="2">
+      <c r="G74" s="2">
         <v>11.998619999999999</v>
       </c>
-      <c r="F74" s="2">
+      <c r="H74" s="2">
         <v>71.914400000000001</v>
       </c>
-      <c r="G74" s="2">
+      <c r="I74" s="2">
         <v>73.437700000000007</v>
       </c>
-      <c r="H74" s="2">
+      <c r="J74" s="2">
         <v>74.291700000000006</v>
       </c>
-      <c r="I74" s="2">
+      <c r="K74" s="2">
         <v>75.736000000000004</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="L74" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="2">
-        <v>68.718199999999996</v>
-      </c>
-      <c r="E75" s="2">
-        <v>71.022100000000009</v>
-      </c>
-      <c r="F75" s="2">
-        <v>72.470100000000002</v>
-      </c>
-      <c r="G75" s="2">
-        <v>73.853499999999997</v>
-      </c>
-      <c r="H75" s="2">
-        <v>74.943399999999997</v>
-      </c>
-      <c r="I75" s="2">
-        <v>76.281899999999993</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="D75" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E75" s="3">
+        <v>412.92289457484895</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="D76" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E76" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="D77" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E77" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="3" t="s">
+      <c r="D78" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E78" s="3">
+        <v>412.92289457484895</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="D79" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E79" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="D80" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E80" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="D81" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E81" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2">
-        <v>0</v>
-      </c>
-      <c r="G82" s="2">
-        <v>0</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3" t="s">
+      <c r="D82" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E82" s="3">
+        <v>412.92289457484895</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E83" s="3">
+        <v>412.92289457484895</v>
       </c>
       <c r="F83" s="2">
-        <v>0</v>
+        <v>68.718199999999996</v>
       </c>
       <c r="G83" s="2">
-        <v>0</v>
+        <v>71.022100000000009</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>72.470100000000002</v>
       </c>
       <c r="I83" s="2">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>73.853499999999997</v>
+      </c>
+      <c r="J83" s="2">
+        <v>74.943399999999997</v>
+      </c>
+      <c r="K83" s="2">
+        <v>76.281899999999993</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="D84" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E84" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="D85" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E85" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="D86" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E86" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="3" t="s">
+      <c r="D87" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E87" s="3">
+        <v>412.92289457484895</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="D88" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E88" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="D89" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E89" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="D90" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E90" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>52</v>
       </c>
@@ -3464,17 +3902,23 @@
       <c r="C91" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="D91" s="3">
+        <v>554.70344514789053</v>
+      </c>
+      <c r="E91" s="3">
+        <v>412.92289457484895</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -3484,409 +3928,511 @@
       <c r="C92" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E92" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F92" s="2">
         <v>-783.69500000000005</v>
       </c>
-      <c r="E92" s="2">
+      <c r="G92" s="2">
         <v>-791.18499999999995</v>
       </c>
-      <c r="F92" s="2">
+      <c r="H92" s="2">
         <v>-758.351</v>
       </c>
-      <c r="G92" s="2">
+      <c r="I92" s="2">
         <v>-742.351</v>
       </c>
-      <c r="H92" s="2">
+      <c r="J92" s="2">
         <v>-725.351</v>
       </c>
-      <c r="I92" s="2">
+      <c r="K92" s="2">
         <v>-708.351</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="L92" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="2">
-        <v>-769</v>
-      </c>
-      <c r="E93" s="2">
-        <v>-752</v>
+      <c r="D93" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E93" s="3">
+        <v>-758.943306442927</v>
       </c>
       <c r="F93" s="2">
-        <v>-735</v>
+        <v>-812.2</v>
       </c>
       <c r="G93" s="2">
-        <v>-719</v>
+        <v>-812.2</v>
       </c>
       <c r="H93" s="2">
-        <v>-702</v>
-      </c>
-      <c r="I93" s="2">
-        <v>-685</v>
-      </c>
-      <c r="J93" s="3" t="s">
+        <v>-812.2</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D94" s="2">
-        <v>-812.2</v>
-      </c>
-      <c r="E94" s="2">
-        <v>-812.2</v>
-      </c>
-      <c r="F94" s="2">
-        <v>-812.2</v>
-      </c>
+      <c r="D94" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="2">
-        <v>-812.2</v>
-      </c>
-      <c r="E95" s="2">
-        <v>-812.2</v>
-      </c>
-      <c r="F95" s="2">
-        <v>-812</v>
-      </c>
+      <c r="D95" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E95" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="3" t="s">
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="3" t="s">
+      <c r="D96" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F96" s="2">
+        <v>-744.21</v>
+      </c>
+      <c r="G96" s="2">
+        <v>-749.61</v>
+      </c>
+      <c r="H96" s="2">
+        <v>-755.05</v>
+      </c>
+      <c r="I96" s="2">
+        <v>-760.53</v>
+      </c>
+      <c r="J96" s="2">
+        <v>-766.04</v>
+      </c>
+      <c r="K96" s="2">
+        <v>-771.6</v>
+      </c>
+      <c r="L96" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="D97" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E97" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F97" s="2">
+        <v>-786.76959735863397</v>
+      </c>
+      <c r="G97" s="2">
+        <v>-848.66523235975092</v>
+      </c>
+      <c r="H97" s="2">
+        <v>-887.95781918520561</v>
+      </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="D98" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E98" s="3">
+        <v>-758.943306442927</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="D99" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E99" s="3">
+        <v>-758.943306442927</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="2">
-        <v>-744.21</v>
-      </c>
-      <c r="E100" s="2">
-        <v>-749.61</v>
-      </c>
-      <c r="F100" s="2">
-        <v>-755.05</v>
-      </c>
-      <c r="G100" s="2">
-        <v>-760.53</v>
-      </c>
-      <c r="H100" s="2">
-        <v>-766.04</v>
-      </c>
-      <c r="I100" s="2">
-        <v>-771.6</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="D100" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D101" s="2">
-        <v>-744.21</v>
-      </c>
-      <c r="E101" s="2">
-        <v>-749.61</v>
+      <c r="D101" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-758.943306442927</v>
       </c>
       <c r="F101" s="2">
-        <v>-755.05</v>
+        <v>-769</v>
       </c>
       <c r="G101" s="2">
-        <v>-760.53</v>
+        <v>-752</v>
       </c>
       <c r="H101" s="2">
-        <v>-766.04</v>
+        <v>-735</v>
       </c>
       <c r="I101" s="2">
-        <v>-771.6</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-719</v>
+      </c>
+      <c r="J101" s="2">
+        <v>-702</v>
+      </c>
+      <c r="K101" s="2">
+        <v>-685</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="2">
-        <v>-786.76959735863397</v>
-      </c>
-      <c r="E102" s="2">
-        <v>-848.66523235975092</v>
+      <c r="D102" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-758.943306442927</v>
       </c>
       <c r="F102" s="2">
-        <v>-887.95781918520561</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+        <v>-812.2</v>
+      </c>
+      <c r="G102" s="2">
+        <v>-812.2</v>
+      </c>
+      <c r="H102" s="2">
+        <v>-812</v>
+      </c>
       <c r="I102" s="2"/>
-      <c r="J102" s="3" t="s">
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D103" s="2">
-        <v>-771.75547438207309</v>
-      </c>
-      <c r="E103" s="2">
-        <v>-805.36889915667825</v>
-      </c>
-      <c r="F103" s="2">
-        <v>-861.83824144026971</v>
-      </c>
+      <c r="D103" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E103" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="D104" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E104" s="3">
+        <v>-758.943306442927</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="3" t="s">
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="3" t="s">
+      <c r="D105" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E105" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F105" s="2">
+        <v>-744.21</v>
+      </c>
+      <c r="G105" s="2">
+        <v>-749.61</v>
+      </c>
+      <c r="H105" s="2">
+        <v>-755.05</v>
+      </c>
+      <c r="I105" s="2">
+        <v>-760.53</v>
+      </c>
+      <c r="J105" s="2">
+        <v>-766.04</v>
+      </c>
+      <c r="K105" s="2">
+        <v>-771.6</v>
+      </c>
+      <c r="L105" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="D106" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E106" s="3">
+        <v>-758.943306442927</v>
+      </c>
+      <c r="F106" s="2">
+        <v>-771.75547438207309</v>
+      </c>
+      <c r="G106" s="2">
+        <v>-805.36889915667825</v>
+      </c>
+      <c r="H106" s="2">
+        <v>-861.83824144026971</v>
+      </c>
       <c r="I106" s="2"/>
-      <c r="J106" s="3" t="s">
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="D107" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E107" s="3">
+        <v>-758.943306442927</v>
+      </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="3" t="s">
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="D108" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E108" s="3">
+        <v>-758.943306442927</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="3" t="s">
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>52</v>
       </c>
@@ -3896,17 +4442,23 @@
       <c r="C109" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="D109" s="3">
+        <v>-789.79315967923401</v>
+      </c>
+      <c r="E109" s="3">
+        <v>-758.943306442927</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>0</v>
       </c>
@@ -3916,445 +4468,547 @@
       <c r="C110" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F110" s="2">
         <v>1570.0429839999999</v>
       </c>
-      <c r="E110" s="2">
+      <c r="G110" s="2">
         <v>1380.345127</v>
       </c>
-      <c r="F110" s="2">
+      <c r="H110" s="2">
         <v>1195.014895</v>
       </c>
-      <c r="G110" s="2">
+      <c r="I110" s="2">
         <v>1091.6507439999998</v>
       </c>
-      <c r="H110" s="2">
+      <c r="J110" s="2">
         <v>1062.5085819999997</v>
       </c>
-      <c r="I110" s="2">
+      <c r="K110" s="2">
         <v>1041.9151970000003</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="L110" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D111" s="2">
-        <v>1573.9814490000001</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1401.480757</v>
+      <c r="D111" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1699.7304573804574</v>
       </c>
       <c r="F111" s="2">
-        <v>1234.0044509999996</v>
+        <v>1538.6165656608</v>
       </c>
       <c r="G111" s="2">
-        <v>1122.1677890000001</v>
+        <v>1357.1796423220101</v>
       </c>
       <c r="H111" s="2">
-        <v>1063.247165</v>
-      </c>
-      <c r="I111" s="2">
-        <v>1030.0434520000001</v>
-      </c>
-      <c r="J111" s="3" t="s">
+        <v>1282.9675605035</v>
+      </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D112" s="2">
-        <v>1538.6165656608</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1357.1796423220101</v>
-      </c>
-      <c r="F112" s="2">
-        <v>1282.9675605035</v>
-      </c>
+      <c r="D112" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="3" t="s">
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D113" s="2">
-        <v>1596.6695668007801</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1464.7868868271901</v>
-      </c>
-      <c r="F113" s="2">
-        <v>1306.2932367497699</v>
-      </c>
+      <c r="D113" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
-      <c r="J113" s="3" t="s">
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="3" t="s">
+      <c r="D114" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1494.42</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1404.46</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1304.67</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1238.49</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1222.73</v>
+      </c>
+      <c r="K114" s="2">
+        <v>1084.3</v>
+      </c>
+      <c r="L114" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="D115" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1636.8052259969049</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1492.6608476410065</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1346.0420396172681</v>
+      </c>
       <c r="I115" s="2"/>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="D116" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1699.7304573804574</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
-      <c r="J116" s="3" t="s">
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="3" t="s">
+      <c r="D117" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1686.7955978365521</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1499.1674052122032</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1325.6630347768523</v>
+      </c>
+      <c r="I117" s="2">
+        <v>1155.4166686663148</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1020.3509424738604</v>
+      </c>
+      <c r="K117" s="2">
+        <v>900.04639019641581</v>
+      </c>
+      <c r="L117" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D118" s="2">
-        <v>1494.42</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1404.46</v>
+      <c r="D118" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1699.7304573804574</v>
       </c>
       <c r="F118" s="2">
-        <v>1304.67</v>
+        <v>1790.5</v>
       </c>
       <c r="G118" s="2">
-        <v>1238.49</v>
+        <v>1520</v>
       </c>
       <c r="H118" s="2">
-        <v>1222.73</v>
+        <v>1141</v>
       </c>
       <c r="I118" s="2">
-        <v>1084.3</v>
-      </c>
-      <c r="J118" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="J118" s="2">
+        <v>704</v>
+      </c>
+      <c r="K118" s="2">
+        <v>555</v>
+      </c>
+      <c r="L118" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D119" s="2">
-        <v>1493.47</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1403.91</v>
+      <c r="D119" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1699.7304573804574</v>
       </c>
       <c r="F119" s="2">
-        <v>1322.3</v>
+        <v>1573.9814490000001</v>
       </c>
       <c r="G119" s="2">
-        <v>1254.73</v>
+        <v>1401.480757</v>
       </c>
       <c r="H119" s="2">
-        <v>1235.58</v>
+        <v>1234.0044509999996</v>
       </c>
       <c r="I119" s="2">
-        <v>1097.25</v>
-      </c>
-      <c r="J119" s="3" t="s">
+        <v>1122.1677890000001</v>
+      </c>
+      <c r="J119" s="2">
+        <v>1063.247165</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1030.0434520000001</v>
+      </c>
+      <c r="L119" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D120" s="2">
-        <v>1636.8052259969049</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1492.6608476410065</v>
+      <c r="D120" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1699.7304573804574</v>
       </c>
       <c r="F120" s="2">
-        <v>1346.0420396172681</v>
-      </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+        <v>1596.6695668007801</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1464.7868868271901</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1306.2932367497699</v>
+      </c>
       <c r="I120" s="2"/>
-      <c r="J120" s="3" t="s">
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D121" s="2">
-        <v>1636.6175275150383</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1511.1995326743938</v>
-      </c>
-      <c r="F121" s="2">
-        <v>1385.1292751382059</v>
-      </c>
+      <c r="D121" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-      <c r="J121" s="3" t="s">
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="D122" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1699.7304573804574</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
-      <c r="J122" s="3" t="s">
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="3" t="s">
+      <c r="D123" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1493.47</v>
+      </c>
+      <c r="G123" s="2">
+        <v>1403.91</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1322.3</v>
+      </c>
+      <c r="I123" s="2">
+        <v>1254.73</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1235.58</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1097.25</v>
+      </c>
+      <c r="L123" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="2">
-        <v>1686.7955978365521</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1499.1674052122032</v>
+      <c r="D124" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1699.7304573804574</v>
       </c>
       <c r="F124" s="2">
-        <v>1325.6630347768523</v>
+        <v>1636.6175275150383</v>
       </c>
       <c r="G124" s="2">
-        <v>1155.4166686663148</v>
+        <v>1511.1995326743938</v>
       </c>
       <c r="H124" s="2">
-        <v>1020.3509424738604</v>
-      </c>
-      <c r="I124" s="2">
-        <v>900.04639019641581</v>
-      </c>
-      <c r="J124" s="3" t="s">
+        <v>1385.1292751382059</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D125" s="2">
-        <v>1692.7963556719355</v>
-      </c>
-      <c r="E125" s="2">
-        <v>1532.1515850071214</v>
-      </c>
-      <c r="F125" s="2">
-        <v>1378.5531688046867</v>
-      </c>
-      <c r="G125" s="2">
-        <v>1223.0844498340384</v>
-      </c>
-      <c r="H125" s="2">
-        <v>1092.9836613392092</v>
-      </c>
-      <c r="I125" s="2">
-        <v>969.80071663116519</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="D125" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D126" s="2">
-        <v>1790.5</v>
-      </c>
-      <c r="E126" s="2">
-        <v>1520</v>
+      <c r="D126" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1699.7304573804574</v>
       </c>
       <c r="F126" s="2">
-        <v>1141</v>
+        <v>1692.7963556719355</v>
       </c>
       <c r="G126" s="2">
-        <v>853</v>
+        <v>1532.1515850071214</v>
       </c>
       <c r="H126" s="2">
-        <v>704</v>
+        <v>1378.5531688046867</v>
       </c>
       <c r="I126" s="2">
-        <v>555</v>
-      </c>
-      <c r="J126" s="3" t="s">
+        <v>1223.0844498340384</v>
+      </c>
+      <c r="J126" s="2">
+        <v>1092.9836613392092</v>
+      </c>
+      <c r="K126" s="2">
+        <v>969.80071663116519</v>
+      </c>
+      <c r="L126" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>52</v>
       </c>
@@ -4364,29 +5018,35 @@
       <c r="C127" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="3">
+        <v>1858.6</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1699.7304573804574</v>
+      </c>
+      <c r="F127" s="2">
         <v>1805.5</v>
       </c>
-      <c r="E127" s="2">
+      <c r="G127" s="2">
         <v>1598</v>
       </c>
-      <c r="F127" s="2">
+      <c r="H127" s="2">
         <v>1348</v>
       </c>
-      <c r="G127" s="2">
+      <c r="I127" s="2">
         <v>1141</v>
       </c>
-      <c r="H127" s="2">
+      <c r="J127" s="2">
         <v>976</v>
       </c>
-      <c r="I127" s="2">
+      <c r="K127" s="2">
         <v>811</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="L127" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>0</v>
       </c>
@@ -4396,409 +5056,511 @@
       <c r="C128" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F128" s="2">
         <v>1229.5789000000004</v>
       </c>
-      <c r="E128" s="2">
+      <c r="G128" s="2">
         <v>1227.3413999999998</v>
       </c>
-      <c r="F128" s="2">
+      <c r="H128" s="2">
         <v>1263.2505999999998</v>
       </c>
-      <c r="G128" s="2">
+      <c r="I128" s="2">
         <v>1277.2766000000001</v>
       </c>
-      <c r="H128" s="2">
+      <c r="J128" s="2">
         <v>1298.3131000000003</v>
       </c>
-      <c r="I128" s="2">
+      <c r="K128" s="2">
         <v>1332.5611999999996</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="L128" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="2">
-        <v>1312.189499999999</v>
-      </c>
-      <c r="E129" s="2">
-        <v>1306.9812000000002</v>
+      <c r="D129" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1312.5819103199692</v>
       </c>
       <c r="F129" s="2">
-        <v>1286.5400000000004</v>
+        <v>1340.2600788088703</v>
       </c>
       <c r="G129" s="2">
-        <v>1299.2409999999995</v>
+        <v>1298.9020438374814</v>
       </c>
       <c r="H129" s="2">
-        <v>1320.4441000000002</v>
-      </c>
-      <c r="I129" s="2">
-        <v>1352.0200999999997</v>
-      </c>
-      <c r="J129" s="3" t="s">
+        <v>1326.308905861415</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="2">
-        <v>1340.2600788088703</v>
-      </c>
-      <c r="E130" s="2">
-        <v>1298.9020438374814</v>
-      </c>
-      <c r="F130" s="2">
-        <v>1326.308905861415</v>
-      </c>
+      <c r="D130" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="2">
-        <v>1342.9776565215775</v>
-      </c>
-      <c r="E131" s="2">
-        <v>1303.0075140525691</v>
-      </c>
-      <c r="F131" s="2">
-        <v>1323.6217531392554</v>
-      </c>
+      <c r="D131" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="3" t="s">
+      <c r="D132" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1386</v>
+      </c>
+      <c r="G132" s="2">
+        <v>1369.2</v>
+      </c>
+      <c r="H132" s="2">
+        <v>1370.88</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1371.7199999999998</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1391.88</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1408.68</v>
+      </c>
+      <c r="L132" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="D133" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1216.7040277610749</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1135.6006046832952</v>
+      </c>
+      <c r="H133" s="2">
+        <v>1099.8026285324654</v>
+      </c>
       <c r="I133" s="2"/>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="D134" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1312.5819103199692</v>
+      </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
-      <c r="J134" s="3" t="s">
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="D135" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1312.5819103199692</v>
+      </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
-      <c r="J135" s="3" t="s">
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D136" s="2">
-        <v>1386</v>
-      </c>
-      <c r="E136" s="2">
-        <v>1369.2</v>
-      </c>
-      <c r="F136" s="2">
-        <v>1370.88</v>
-      </c>
-      <c r="G136" s="2">
-        <v>1371.7199999999998</v>
-      </c>
-      <c r="H136" s="2">
-        <v>1391.88</v>
-      </c>
-      <c r="I136" s="2">
-        <v>1408.68</v>
-      </c>
-      <c r="J136" s="3" t="s">
+      <c r="D136" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D137" s="2">
-        <v>1417.08</v>
-      </c>
-      <c r="E137" s="2">
-        <v>1444.8</v>
+      <c r="D137" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1312.5819103199692</v>
       </c>
       <c r="F137" s="2">
-        <v>1475.88</v>
+        <v>1312.189499999999</v>
       </c>
       <c r="G137" s="2">
-        <v>1480.9199999999998</v>
+        <v>1306.9812000000002</v>
       </c>
       <c r="H137" s="2">
-        <v>1496.04</v>
+        <v>1286.5400000000004</v>
       </c>
       <c r="I137" s="2">
-        <v>1529.64</v>
-      </c>
-      <c r="J137" s="3" t="s">
+        <v>1299.2409999999995</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1320.4441000000002</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1352.0200999999997</v>
+      </c>
+      <c r="L137" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="2">
-        <v>1216.7040277610749</v>
-      </c>
-      <c r="E138" s="2">
-        <v>1135.6006046832952</v>
+      <c r="D138" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1312.5819103199692</v>
       </c>
       <c r="F138" s="2">
-        <v>1099.8026285324654</v>
-      </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
+        <v>1342.9776565215775</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1303.0075140525691</v>
+      </c>
+      <c r="H138" s="2">
+        <v>1323.6217531392554</v>
+      </c>
       <c r="I138" s="2"/>
-      <c r="J138" s="3" t="s">
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="2">
-        <v>1220.0038400548513</v>
-      </c>
-      <c r="E139" s="2">
-        <v>1180.2902323909952</v>
-      </c>
-      <c r="F139" s="2">
-        <v>1133.3649627079108</v>
-      </c>
+      <c r="D139" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
-      <c r="J139" s="3" t="s">
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="D140" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1312.5819103199692</v>
+      </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
-      <c r="J140" s="3" t="s">
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="3" t="s">
+      <c r="D141" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1417.08</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1444.8</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1475.88</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1480.9199999999998</v>
+      </c>
+      <c r="J141" s="2">
+        <v>1496.04</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1529.64</v>
+      </c>
+      <c r="L141" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
+      <c r="D142" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1312.5819103199692</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1220.0038400548513</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1180.2902323909952</v>
+      </c>
+      <c r="H142" s="2">
+        <v>1133.3649627079108</v>
+      </c>
       <c r="I142" s="2"/>
-      <c r="J142" s="3" t="s">
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="D143" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1312.5819103199692</v>
+      </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
-      <c r="J143" s="3" t="s">
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="D144" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1312.5819103199692</v>
+      </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="3" t="s">
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>52</v>
       </c>
@@ -4808,13 +5570,19 @@
       <c r="C145" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="D145" s="3">
+        <v>1297.2244941105009</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1312.5819103199692</v>
+      </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="3" t="s">
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24169,6 +24937,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24589,21 +25362,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -24645,7 +25404,24 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24668,23 +25444,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -24703,4 +25463,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-extra/ira_comparison_raw/ira_comparison.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\Git Repos\LEEP\data-extra\ira_comparison_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcole\Documents\LEEP\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FFA918-CEB9-4F97-8A6D-8C96E71C6CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E4EA1C-E2AD-45E5-B04D-9491B25C6F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="811" activeTab="1" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="705" yWindow="4545" windowWidth="17820" windowHeight="11235" tabRatio="811" firstSheet="3" activeTab="8" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="84">
   <si>
     <t>IRA</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>EV Sales Share (%)</t>
+  </si>
+  <si>
+    <t>Reference without IRA</t>
+  </si>
+  <si>
+    <t>IPM-EPA</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA7B03-7E95-44A8-8E57-7EF481135E5D}">
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,6 +5592,78 @@
         <v>33</v>
       </c>
     </row>
+    <row r="146" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1551</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2">
+        <v>1303.5828442217758</v>
+      </c>
+      <c r="H146" s="2">
+        <v>1247.2876908604831</v>
+      </c>
+      <c r="I146" s="2">
+        <v>1078.2152299012889</v>
+      </c>
+      <c r="J146" s="2">
+        <v>974.78662533547231</v>
+      </c>
+      <c r="K146" s="2">
+        <v>844.16206019677293</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2400.1</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1551</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2">
+        <v>971.71936396552326</v>
+      </c>
+      <c r="H147" s="2">
+        <v>608.29910272708059</v>
+      </c>
+      <c r="I147" s="2">
+        <v>481.36611776682162</v>
+      </c>
+      <c r="J147" s="2">
+        <v>405.7058132501208</v>
+      </c>
+      <c r="K147" s="2">
+        <v>356.71684510032821</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5594,10 +5672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690E30FA-4CD4-4165-8253-140D940C5DE0}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145:J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9907,6 +9985,122 @@
         <v>3</v>
       </c>
     </row>
+    <row r="146" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E146" s="3">
+        <v>5.3780147428500582</v>
+      </c>
+      <c r="F146" s="3">
+        <v>5.3780147428500582</v>
+      </c>
+      <c r="G146" s="3">
+        <v>5.3780147428500582</v>
+      </c>
+      <c r="H146" s="3">
+        <v>5.3588452100484147</v>
+      </c>
+      <c r="I146" s="3">
+        <v>5.3588452100484147</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E147" s="3">
+        <v>10.000000489549343</v>
+      </c>
+      <c r="F147" s="3">
+        <v>10.000000489549343</v>
+      </c>
+      <c r="G147" s="3">
+        <v>9.0085890976471568</v>
+      </c>
+      <c r="H147" s="3">
+        <v>5.4817870528002093</v>
+      </c>
+      <c r="I147" s="3">
+        <v>4.4636785382157314</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E148" s="3">
+        <v>88.748458178510205</v>
+      </c>
+      <c r="F148" s="3">
+        <v>100.65357965849033</v>
+      </c>
+      <c r="G148" s="3">
+        <v>73.779766435409613</v>
+      </c>
+      <c r="H148" s="3">
+        <v>5.5265852227694197</v>
+      </c>
+      <c r="I148" s="3">
+        <v>2.991203808895087</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E149" s="3">
+        <v>20.507913569995466</v>
+      </c>
+      <c r="F149" s="3">
+        <v>31.753769509136593</v>
+      </c>
+      <c r="G149" s="3">
+        <v>31.753769509136593</v>
+      </c>
+      <c r="H149" s="3">
+        <v>17.029351904487385</v>
+      </c>
+      <c r="I149" s="3">
+        <v>16.11865922343058</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9916,7 +10110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BAA39A-0BF4-4085-9680-9F9D9D6B87A8}">
   <dimension ref="A1:J199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -15893,10 +16087,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0BA1F-1079-4F85-BE53-285F79BAFC0C}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18911,6 +19105,354 @@
         <v>37</v>
       </c>
     </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1125.5760699183948</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1168.6392807106861</v>
+      </c>
+      <c r="G110" s="3">
+        <v>1208.1829474458632</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1265.0231814664212</v>
+      </c>
+      <c r="I110" s="3">
+        <v>1316.7229574691614</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E111" s="3">
+        <v>3208.1451654342995</v>
+      </c>
+      <c r="F111" s="3">
+        <v>3321.3472891351075</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3471.7930630963415</v>
+      </c>
+      <c r="H111" s="3">
+        <v>3648.1780877663764</v>
+      </c>
+      <c r="I111" s="3">
+        <v>3866.7500998113555</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" s="3">
+        <v>174.52799636670341</v>
+      </c>
+      <c r="F112" s="3">
+        <v>306.32574927068379</v>
+      </c>
+      <c r="G112" s="3">
+        <v>421.72050213235298</v>
+      </c>
+      <c r="H112" s="3">
+        <v>515.21031559513233</v>
+      </c>
+      <c r="I112" s="3">
+        <v>594.45734713116724</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E115" s="3">
+        <v>4508.2492317193974</v>
+      </c>
+      <c r="F115" s="3">
+        <v>4796.3123191164768</v>
+      </c>
+      <c r="G115" s="3">
+        <v>5101.6965126745581</v>
+      </c>
+      <c r="H115" s="3">
+        <v>5428.4115848279298</v>
+      </c>
+      <c r="I115" s="3">
+        <v>5777.9304044116834</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1125.5760699183948</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1168.6392807106861</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1208.1829474458632</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1265.0231814664212</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1316.7229574691614</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E117" s="3">
+        <v>3208.1451654342995</v>
+      </c>
+      <c r="F117" s="3">
+        <v>3321.3472891351075</v>
+      </c>
+      <c r="G117" s="3">
+        <v>3471.7930630963415</v>
+      </c>
+      <c r="H117" s="3">
+        <v>3648.1780877663764</v>
+      </c>
+      <c r="I117" s="3">
+        <v>3866.7500998113555</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E118" s="3">
+        <v>174.52799636670341</v>
+      </c>
+      <c r="F118" s="3">
+        <v>306.32574927068379</v>
+      </c>
+      <c r="G118" s="3">
+        <v>421.72050213235298</v>
+      </c>
+      <c r="H118" s="3">
+        <v>515.21031559513233</v>
+      </c>
+      <c r="I118" s="3">
+        <v>594.45734713116724</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>0</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E121" s="3">
+        <v>4508.2492317193974</v>
+      </c>
+      <c r="F121" s="3">
+        <v>4796.3123191164768</v>
+      </c>
+      <c r="G121" s="3">
+        <v>5101.6965126745581</v>
+      </c>
+      <c r="H121" s="3">
+        <v>5428.4115848279298</v>
+      </c>
+      <c r="I121" s="3">
+        <v>5777.9304044116834</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18918,10 +19460,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C08327-8546-4626-8135-5EE1E54ECCE3}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19337,6 +19879,64 @@
         <v>39</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.48536449106829072</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.42092160324787181</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.33970812484427471</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.29303191096310366</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.22147151555838668</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.3337243671278719</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.19408027184425583</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.1473928924446351</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.10111546375296555</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8.717814044810368E-2</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -21705,7 +22305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E3A388-4F05-4E62-A94C-CB27D872236F}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -24937,11 +25537,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25362,7 +25957,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -25404,24 +26013,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25444,7 +26036,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -25463,12 +26071,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-extra/ira_comparison_raw/ira_comparison.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcole\Documents\LEEP\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E4EA1C-E2AD-45E5-B04D-9491B25C6F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B7734-CA6C-47FF-88CD-F357959A0878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="4545" windowWidth="17820" windowHeight="11235" tabRatio="811" firstSheet="3" activeTab="8" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="9105" yWindow="3105" windowWidth="25035" windowHeight="13515" tabRatio="811" activeTab="7" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="83">
   <si>
     <t>IRA</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>EV Sales Share (%)</t>
-  </si>
-  <si>
-    <t>Reference without IRA</t>
   </si>
   <si>
     <t>IPM-EPA</t>
@@ -1098,13 +1095,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA7B03-7E95-44A8-8E57-7EF481135E5D}">
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="30.42578125" style="3" customWidth="1"/>
@@ -5594,10 +5591,10 @@
     </row>
     <row r="146" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>46</v>
@@ -5633,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>46</v>
@@ -5675,12 +5672,12 @@
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145:J149"/>
+      <selection activeCell="A146" sqref="A146:A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -9987,10 +9984,10 @@
     </row>
     <row r="146" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>53</v>
@@ -10016,10 +10013,10 @@
     </row>
     <row r="147" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>54</v>
@@ -10048,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>53</v>
@@ -10077,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>54</v>
@@ -16089,13 +16086,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0BA1F-1079-4F85-BE53-285F79BAFC0C}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
@@ -19107,10 +19104,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>72</v>
@@ -19136,10 +19133,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>73</v>
@@ -19165,10 +19162,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>74</v>
@@ -19194,10 +19191,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>75</v>
@@ -19223,10 +19220,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>76</v>
@@ -19252,10 +19249,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>77</v>
@@ -19284,7 +19281,7 @@
         <v>0</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>72</v>
@@ -19313,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>73</v>
@@ -19342,7 +19339,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>74</v>
@@ -19371,7 +19368,7 @@
         <v>0</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>75</v>
@@ -19400,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>76</v>
@@ -19429,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>77</v>
@@ -19463,12 +19460,12 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
@@ -19884,10 +19881,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>39</v>
@@ -19916,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>39</v>
@@ -20806,7 +20803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5018F82-05F8-4226-B359-1D0FB4A3757E}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -22305,7 +22302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E3A388-4F05-4E62-A94C-CB27D872236F}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -25537,6 +25534,62 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d00cabe-74f9-499f-ba26-1e0076cbc6cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2023-01-24T15:33:11+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25957,63 +26010,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2755580c-7c5f-43cf-bd85-5c868b718937"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="3d00cabe-74f9-499f-ba26-1e0076cbc6cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d00cabe-74f9-499f-ba26-1e0076cbc6cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2023-01-24T15:33:11+00:00</Document_x0020_Creation_x0020_Date>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26034,41 +26068,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2755580c-7c5f-43cf-bd85-5c868b718937"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="3d00cabe-74f9-499f-ba26-1e0076cbc6cc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-extra/ira_comparison_raw/ira_comparison.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcole\Documents\LEEP\LEEP\data-extra\ira_comparison_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B7734-CA6C-47FF-88CD-F357959A0878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4B5E7-2B8F-431B-A50F-D71C978A2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="3105" windowWidth="25035" windowHeight="13515" tabRatio="811" activeTab="7" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="811" activeTab="2" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="14" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Transport" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Electricity Demand'!$A$1:$J$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Emissions!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1095,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA7B03-7E95-44A8-8E57-7EF481135E5D}">
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690E30FA-4CD4-4165-8253-140D940C5DE0}">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:A147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16084,10 +16085,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0BA1F-1079-4F85-BE53-285F79BAFC0C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:A115"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16132,7 +16134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -16164,7 +16166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -16196,7 +16198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -16228,7 +16230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -16292,7 +16294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -16324,7 +16326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -16347,7 +16349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -16370,7 +16372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -16393,7 +16395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -16439,7 +16441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -16462,7 +16464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -16491,7 +16493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -16520,7 +16522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -16549,7 +16551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -16592,7 +16594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -16606,7 +16608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -16638,7 +16640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -16670,7 +16672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -16702,7 +16704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -16766,7 +16768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -16798,7 +16800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -16830,7 +16832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -16862,7 +16864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -16894,7 +16896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -16958,7 +16960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -16990,7 +16992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -17013,7 +17015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -17036,7 +17038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -17059,7 +17061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -17096,7 +17098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -17119,7 +17121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
@@ -17133,7 +17135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -17147,7 +17149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
@@ -17161,7 +17163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
@@ -17201,7 +17203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -17233,7 +17235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -17265,7 +17267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -17297,7 +17299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -17329,7 +17331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -17393,7 +17395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -17425,7 +17427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -17457,7 +17459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -17489,7 +17491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -17521,7 +17523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -17585,7 +17587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -17617,7 +17619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -17649,7 +17651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>0</v>
       </c>
@@ -17681,7 +17683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -17713,7 +17715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
@@ -17777,7 +17779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
@@ -17809,7 +17811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>0</v>
       </c>
@@ -17832,7 +17834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>0</v>
       </c>
@@ -17855,7 +17857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>0</v>
       </c>
@@ -17878,7 +17880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>0</v>
       </c>
@@ -17924,7 +17926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
@@ -17947,7 +17949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>0</v>
       </c>
@@ -17976,7 +17978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>0</v>
       </c>
@@ -18005,7 +18007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>0</v>
       </c>
@@ -18034,7 +18036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
@@ -18077,7 +18079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>0</v>
       </c>
@@ -18091,7 +18093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -18123,7 +18125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>0</v>
       </c>
@@ -18155,7 +18157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
@@ -18187,7 +18189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>0</v>
       </c>
@@ -18251,7 +18253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>0</v>
       </c>
@@ -18283,7 +18285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>0</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>0</v>
       </c>
@@ -18347,7 +18349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>0</v>
       </c>
@@ -18379,7 +18381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -18443,7 +18445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>0</v>
       </c>
@@ -18475,7 +18477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>0</v>
       </c>
@@ -18498,7 +18500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>0</v>
       </c>
@@ -18521,7 +18523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>0</v>
       </c>
@@ -18544,7 +18546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>0</v>
       </c>
@@ -18581,7 +18583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>0</v>
       </c>
@@ -18604,7 +18606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -18618,7 +18620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>0</v>
       </c>
@@ -18632,7 +18634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>0</v>
       </c>
@@ -18646,7 +18648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>0</v>
       </c>
@@ -18686,7 +18688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>0</v>
       </c>
@@ -18718,7 +18720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
@@ -18750,7 +18752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>0</v>
       </c>
@@ -18782,7 +18784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
@@ -18814,7 +18816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
@@ -18878,7 +18880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>0</v>
       </c>
@@ -18910,7 +18912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
@@ -18942,7 +18944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
@@ -18974,7 +18976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>0</v>
       </c>
@@ -19006,7 +19008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>0</v>
       </c>
@@ -19070,7 +19072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>0</v>
       </c>
@@ -19102,7 +19104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>52</v>
       </c>
@@ -19131,7 +19133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>52</v>
       </c>
@@ -19160,7 +19162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>52</v>
       </c>
@@ -19189,7 +19191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>52</v>
       </c>
@@ -19247,7 +19249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>52</v>
       </c>
@@ -19276,7 +19278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>0</v>
       </c>
@@ -19305,7 +19307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>0</v>
       </c>
@@ -19334,7 +19336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>0</v>
       </c>
@@ -19363,7 +19365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>0</v>
       </c>
@@ -19421,7 +19423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>0</v>
       </c>
@@ -19451,6 +19453,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J121" xr:uid="{ADE0BA1F-1079-4F85-BE53-285F79BAFC0C}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Electricity Demand - Other"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20803,8 +20812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5018F82-05F8-4226-B359-1D0FB4A3757E}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22303,7 +22312,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25534,6 +25543,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -25573,20 +25596,6 @@
     <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26011,6 +26020,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -26027,22 +26052,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data-extra/ira_comparison_raw/ira_comparison.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E76606-4100-4D38-A2FA-9F5F1AFA9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C4EC21-6CC1-478A-814B-E52D7A3AE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="828" activeTab="2" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="120" yWindow="2340" windowWidth="28680" windowHeight="11250" tabRatio="828" activeTab="3" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="generation" sheetId="16" r:id="rId1"/>
@@ -420,13 +420,7 @@
     <t>Capacity Additions|Electricity|Solar</t>
   </si>
   <si>
-    <t>Capacity Additions|Electricity|Storage</t>
-  </si>
-  <si>
     <t>Capacity Additions|Electricity|Gas|w/ CCS</t>
-  </si>
-  <si>
-    <t>Capacity Retirements|Electricity|Gas</t>
   </si>
   <si>
     <t>Capacity Retirements|Electricity|Nuclear</t>
@@ -441,13 +435,7 @@
     <t>Capacity Retirements|Electricity|Hydro</t>
   </si>
   <si>
-    <t>Capacity Retirements|Electricity|Coal</t>
-  </si>
-  <si>
     <t>Capacity Retirements|Electricity|Solar</t>
-  </si>
-  <si>
-    <t>Capacity Retirements|Electricity|Storage</t>
   </si>
   <si>
     <t>Capacity Additions|Electricity|Gas|w/o CCS|Average 2021-2035</t>
@@ -526,6 +514,18 @@
   </si>
   <si>
     <t>Secondary Energy|Electricity|Other2</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Storage Capacity</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Gas|w/o CCS</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Coal|w/o CCS</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Storage Capacity</t>
   </si>
 </sst>
 </file>
@@ -996,10 +996,10 @@
         <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>84</v>
@@ -1008,7 +1008,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>86</v>
@@ -1017,22 +1017,22 @@
         <v>87</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>90</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>92</v>
@@ -10710,7 +10710,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10752,7 +10752,7 @@
         <v>96</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>97</v>
@@ -10776,7 +10776,7 @@
         <v>103</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>104</v>
@@ -10785,13 +10785,13 @@
         <v>105</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>106</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>107</v>
@@ -14154,8 +14154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E64FD3-40DF-49DE-8E41-9A8578586801}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14213,10 +14213,10 @@
         <v>85</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>91</v>
@@ -17838,8 +17838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EFD0DC-091E-497D-A6DB-8615CC46A695}">
   <dimension ref="A1:BY24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17847,7 +17847,7 @@
     <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="23" width="7" bestFit="1" customWidth="1"/>
     <col min="24" max="29" width="8" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="7" bestFit="1" customWidth="1"/>
@@ -19559,7 +19559,7 @@
         <v>113</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="3">
         <v>2E-3</v>
@@ -19627,7 +19627,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.25">
@@ -19641,7 +19641,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="BE11">
         <v>-2.9714999999999998</v>
@@ -19718,7 +19718,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BP12">
         <v>-3.5760000000000001</v>
@@ -19756,7 +19756,7 @@
         <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BE13">
         <v>-0.82869999999999999</v>
@@ -19833,7 +19833,7 @@
         <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BF14">
         <v>-6.8999999999999999E-3</v>
@@ -19904,7 +19904,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BE15">
         <v>-1.4800000000000001E-2</v>
@@ -19978,7 +19978,7 @@
         <v>113</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="BE16">
         <v>-1.0562</v>
@@ -20055,7 +20055,7 @@
         <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BN17">
         <v>-3.5000000000000001E-3</v>
@@ -20093,7 +20093,7 @@
         <v>113</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="BP18">
         <v>-2.4E-2</v>
@@ -20213,7 +20213,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -20289,7 +20289,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -20365,7 +20365,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -20403,7 +20403,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -20441,7 +20441,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -20479,7 +20479,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -20517,7 +20517,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -20593,7 +20593,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -20628,7 +20628,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
@@ -20663,7 +20663,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -20698,7 +20698,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>52</v>
@@ -20736,7 +20736,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>52</v>
@@ -20774,7 +20774,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>52</v>
@@ -20812,7 +20812,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>52</v>
@@ -20850,7 +20850,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>52</v>
@@ -20888,7 +20888,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>52</v>
@@ -20926,7 +20926,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -20964,7 +20964,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>52</v>
@@ -21002,7 +21002,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>52</v>
@@ -21040,7 +21040,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>52</v>
@@ -21078,7 +21078,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -21113,7 +21113,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
@@ -21148,7 +21148,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>52</v>
@@ -39559,6 +39559,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -39979,21 +39984,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -40035,7 +40026,24 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40058,23 +40066,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -40093,4 +40085,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-extra/ira_comparison_raw/ira_comparison.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C4EC21-6CC1-478A-814B-E52D7A3AE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2634E-4965-4F1F-BE1F-5AB5A0221DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2340" windowWidth="28680" windowHeight="11250" tabRatio="828" activeTab="3" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="828" firstSheet="2" activeTab="13" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="generation" sheetId="16" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <sheet name="Generation and Capacity" sheetId="13" r:id="rId13"/>
     <sheet name="Transport" sheetId="15" r:id="rId14"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Electricity Demand'!$A$1:$J$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Emissions!$A$1:$L$1</definedName>
@@ -532,9 +529,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -598,7 +594,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -606,10 +602,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -618,6 +610,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,25 +628,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Historical"/>
-      <sheetName val="Scenarios IRA"/>
-      <sheetName val="Scenarios Ref"/>
-      <sheetName val="BTM Solar"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7080,7 +7054,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10314,8 +10288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D981084-6130-4561-90E5-4664881F4439}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10359,16 +10333,16 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="11">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="11">
         <v>0.15271899999999999</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="11">
         <v>0.34128179999999997</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="11">
         <v>0.361236</v>
       </c>
     </row>
@@ -10382,16 +10356,16 @@
       <c r="C3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="11">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="11">
         <v>0.18899999999999997</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="11">
         <v>0.42700000000000005</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="11">
         <v>0.308</v>
       </c>
     </row>
@@ -10405,10 +10379,10 @@
       <c r="C4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -10420,10 +10394,10 @@
       <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -10435,10 +10409,10 @@
       <c r="C6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -10450,16 +10424,16 @@
       <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="11">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <v>9.792107402116626E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="11">
         <v>0.31698236573586602</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="11">
         <v>0.30062274667076816</v>
       </c>
     </row>
@@ -10473,10 +10447,10 @@
       <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -10488,16 +10462,16 @@
       <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="11">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="11">
         <v>0.1797</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="11">
         <v>0.44309999999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="11">
         <v>0.5353</v>
       </c>
     </row>
@@ -10511,16 +10485,16 @@
       <c r="C10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="11">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="11">
         <v>0.20050000000000001</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="11">
         <v>0.52359999999999995</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="11">
         <v>0.8145</v>
       </c>
     </row>
@@ -10534,16 +10508,16 @@
       <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>0.1484036</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="4">
         <v>0.29292699999999999</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="4">
         <v>0.35405660000000005</v>
       </c>
     </row>
@@ -10557,16 +10531,16 @@
       <c r="C12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>0.114</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>0.24</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="11">
         <v>0.26700000000000002</v>
       </c>
     </row>
@@ -10580,10 +10554,10 @@
       <c r="C13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -10595,10 +10569,10 @@
       <c r="C14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -10610,10 +10584,10 @@
       <c r="C15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -10625,16 +10599,16 @@
       <c r="C16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="4">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>0.1146303343999167</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="4">
         <v>0.22097885890187796</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="4">
         <v>0.29428409521239485</v>
       </c>
     </row>
@@ -10648,10 +10622,10 @@
       <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -10663,16 +10637,16 @@
       <c r="C18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="4">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <v>0.1648</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>0.32350000000000001</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="11">
         <v>0.43259999999999998</v>
       </c>
     </row>
@@ -10686,16 +10660,16 @@
       <c r="C19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="4">
         <v>6.4371803214039236E-2</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <v>0.17749999999999999</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>0.4274</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="11">
         <v>0.58609999999999995</v>
       </c>
     </row>
@@ -14185,46 +14159,46 @@
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -14235,46 +14209,46 @@
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>1950</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>154519.99400000001</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="10">
         <v>33734.288</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="10">
         <v>44559.159</v>
       </c>
-      <c r="H2" s="14">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>100884.575</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="10">
         <v>389.58499999999998</v>
       </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14">
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
         <v>334087.60100000002</v>
       </c>
     </row>
@@ -14285,46 +14259,46 @@
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>1951</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>185203.65700000001</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <v>28712.116000000002</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>56615.678</v>
       </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>104376.12</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="10">
         <v>390.78399999999999</v>
       </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14">
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
         <v>375298.35499999998</v>
       </c>
     </row>
@@ -14335,46 +14309,46 @@
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>1952</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>195436.666</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>29749.760999999999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <v>68453.088000000003</v>
       </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
         <v>109708.251</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="10">
         <v>481.64699999999999</v>
       </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
         <v>403829.413</v>
       </c>
     </row>
@@ -14385,46 +14359,46 @@
       <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>1953</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>218846.32500000001</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>38404.449000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>79790.975000000006</v>
       </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>109617.39599999999</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="10">
         <v>389.41800000000001</v>
       </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14">
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
         <v>447048.56300000002</v>
       </c>
     </row>
@@ -14435,46 +14409,46 @@
       <c r="B6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>1954</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>239145.96599999999</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>31520.174999999999</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>93688.270999999993</v>
       </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>111639.772</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="10">
         <v>263.43400000000003</v>
       </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
         <v>476257.61800000002</v>
       </c>
     </row>
@@ -14485,46 +14459,46 @@
       <c r="B7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>1955</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>301362.69799999997</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>37138.307999999997</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>95285.441000000006</v>
       </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <v>116235.946</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="10">
         <v>276.46899999999999</v>
       </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
         <v>550298.86199999996</v>
       </c>
     </row>
@@ -14535,46 +14509,46 @@
       <c r="B8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>1956</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>338503.484</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>35946.771999999997</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>104037.208</v>
       </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <v>125236.621</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="10">
         <v>151.678</v>
       </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
         <v>603875.76300000004</v>
       </c>
     </row>
@@ -14585,46 +14559,46 @@
       <c r="B9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>1957</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>346386.20699999999</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>40499.357000000004</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>114212.52499999999</v>
       </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <v>9.67</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <v>133357.93</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="10">
         <v>176.678</v>
       </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
         <v>634642.36699999997</v>
       </c>
     </row>
@@ -14635,46 +14609,46 @@
       <c r="B10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>1958</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="10">
         <v>344365.78100000002</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>40371.54</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>119759.302</v>
       </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
         <v>164.691</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>143614.54500000001</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="10">
         <v>175.00299999999999</v>
       </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
         <v>648450.86199999996</v>
       </c>
     </row>
@@ -14685,46 +14659,46 @@
       <c r="B11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>1959</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="10">
         <v>378424.21</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>46839.718999999997</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>146619.391</v>
       </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
         <v>188.101</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="10">
         <v>141154.533</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="10">
         <v>152.87700000000001</v>
       </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
         <v>713378.83100000001</v>
       </c>
     </row>
@@ -14735,46 +14709,46 @@
       <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>1960</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>403067.35700000002</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>47986.892999999996</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10">
         <v>157969.78700000001</v>
       </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
         <v>518.18200000000002</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="10">
         <v>149440.035</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="10">
         <v>140.166</v>
       </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14">
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
         <v>33.368000000000002</v>
       </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14">
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
         <v>759155.78799999994</v>
       </c>
     </row>
@@ -14785,46 +14759,46 @@
       <c r="B13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <v>1961</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>421870.66899999999</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>48519.375999999997</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>169285.99799999999</v>
       </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
         <v>1692.1489999999999</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="10">
         <v>155536.44399999999</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="10">
         <v>125.73399999999999</v>
       </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
         <v>94.021000000000001</v>
       </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <v>797124.39099999995</v>
       </c>
     </row>
@@ -14835,46 +14809,46 @@
       <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="9">
         <v>1962</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <v>450249.23800000001</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>48879.536</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>184301.29300000001</v>
       </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
         <v>2269.6849999999999</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="10">
         <v>172015.64600000001</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="10">
         <v>127.79600000000001</v>
       </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14">
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
         <v>100.462</v>
       </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
         <v>857943.65599999996</v>
       </c>
     </row>
@@ -14885,46 +14859,46 @@
       <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <v>1963</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>493926.71899999998</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <v>52001.61</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>201602.073</v>
       </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <v>3211.8359999999998</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="10">
         <v>168990.14</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="10">
         <v>127.94</v>
       </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
         <v>167.953</v>
       </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <v>920028.27099999995</v>
       </c>
     </row>
@@ -14935,46 +14909,46 @@
       <c r="B16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <v>1964</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="10">
         <v>526230.01899999997</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>56953.712</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="10">
         <v>220038.47899999999</v>
       </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
         <v>3342.7429999999999</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="10">
         <v>180301.50599999999</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="10">
         <v>148.07599999999999</v>
       </c>
-      <c r="L16" s="14">
-        <v>0</v>
-      </c>
-      <c r="M16" s="14">
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
         <v>203.791</v>
       </c>
-      <c r="N16" s="14">
-        <v>0</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0</v>
-      </c>
-      <c r="P16" s="14">
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <v>987218.326</v>
       </c>
     </row>
@@ -14985,46 +14959,46 @@
       <c r="B17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>1965</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>570925.951</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>64801.224000000002</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="10">
         <v>221559.43400000001</v>
       </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
         <v>3656.6990000000001</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>196984.345</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="10">
         <v>268.80399999999997</v>
       </c>
-      <c r="L17" s="14">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14">
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
         <v>189.214</v>
       </c>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14">
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <v>1058385.6710000001</v>
       </c>
     </row>
@@ -15035,46 +15009,46 @@
       <c r="B18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>1966</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>613474.80000000005</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>78926.172000000006</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="10">
         <v>251151.56200000001</v>
       </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
         <v>5519.9089999999997</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="10">
         <v>197937.538</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="10">
         <v>333.92599999999999</v>
       </c>
-      <c r="L18" s="14">
-        <v>0</v>
-      </c>
-      <c r="M18" s="14">
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
         <v>187.988</v>
       </c>
-      <c r="N18" s="14">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14">
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <v>1147531.895</v>
       </c>
     </row>
@@ -15085,46 +15059,46 @@
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>1967</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="10">
         <v>630483.36300000001</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>89270.724000000002</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="10">
         <v>264805.78499999997</v>
       </c>
-      <c r="H19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
         <v>7655.2139999999999</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="10">
         <v>224948.60500000001</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="10">
         <v>315.68799999999999</v>
       </c>
-      <c r="L19" s="14">
-        <v>0</v>
-      </c>
-      <c r="M19" s="14">
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
         <v>316.30900000000003</v>
       </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0</v>
-      </c>
-      <c r="P19" s="14">
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <v>1217795.6880000001</v>
       </c>
     </row>
@@ -15135,46 +15109,46 @@
       <c r="B20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>1968</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="10">
         <v>684904.58</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="10">
         <v>104275.833</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="10">
         <v>304432.723</v>
       </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
         <v>12528.419</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="10">
         <v>225873.158</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="10">
         <v>375.06200000000001</v>
       </c>
-      <c r="L20" s="14">
-        <v>0</v>
-      </c>
-      <c r="M20" s="14">
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
         <v>435.82600000000002</v>
       </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0</v>
-      </c>
-      <c r="P20" s="14">
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <v>1332825.601</v>
       </c>
     </row>
@@ -15185,46 +15159,46 @@
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="9">
         <v>1969</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="10">
         <v>706001.24</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>137847.152</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>333278.94500000001</v>
       </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
         <v>13927.839</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="10">
         <v>253468.23699999999</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="10">
         <v>319.93299999999999</v>
       </c>
-      <c r="L21" s="14">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14">
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
         <v>614.71</v>
       </c>
-      <c r="N21" s="14">
-        <v>0</v>
-      </c>
-      <c r="O21" s="14">
-        <v>0</v>
-      </c>
-      <c r="P21" s="14">
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <v>1445458.0560000001</v>
       </c>
     </row>
@@ -15235,46 +15209,46 @@
       <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="9">
         <v>1970</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>704394.47900000005</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>184183.402</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
         <v>372890.06300000002</v>
       </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14">
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
         <v>21804.448</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="10">
         <v>250957.44200000001</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="10">
         <v>136</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="10">
         <v>220.45</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="10">
         <v>525.18299999999999</v>
       </c>
-      <c r="N22" s="14">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="14">
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
         <v>1535111.4669999999</v>
       </c>
     </row>
@@ -15285,46 +15259,46 @@
       <c r="B23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>1971</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="10">
         <v>713102.45400000003</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="10">
         <v>220225.42300000001</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="10">
         <v>374030.78399999999</v>
       </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
         <v>38104.544999999998</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="10">
         <v>269531.45899999997</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="10">
         <v>111.33</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="10">
         <v>199.869</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="10">
         <v>547.75199999999995</v>
       </c>
-      <c r="N23" s="14">
-        <v>0</v>
-      </c>
-      <c r="O23" s="14">
-        <v>0</v>
-      </c>
-      <c r="P23" s="14">
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <v>1615853.6159999999</v>
       </c>
     </row>
@@ -15335,46 +15309,46 @@
       <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>1972</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="10">
         <v>771131.26500000001</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="10">
         <v>274295.96100000001</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="10">
         <v>375747.79599999997</v>
       </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14">
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
         <v>54091.135000000002</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="10">
         <v>275928.82799999998</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="10">
         <v>130.85900000000001</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="10">
         <v>199.774</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="10">
         <v>1452.7950000000001</v>
       </c>
-      <c r="N24" s="14">
-        <v>0</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0</v>
-      </c>
-      <c r="P24" s="14">
+      <c r="N24" s="10">
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <v>1752978.4129999999</v>
       </c>
     </row>
@@ -15385,46 +15359,46 @@
       <c r="B25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <v>1973</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="10">
         <v>847651.47</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="10">
         <v>314342.92599999998</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
         <v>340858.19199999998</v>
       </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
         <v>83479.463000000003</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="10">
         <v>275430.57400000002</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="10">
         <v>130.40299999999999</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="10">
         <v>197.89</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="10">
         <v>1965.713</v>
       </c>
-      <c r="N25" s="14">
-        <v>0</v>
-      </c>
-      <c r="O25" s="14">
-        <v>0</v>
-      </c>
-      <c r="P25" s="14">
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
         <v>1864056.632</v>
       </c>
     </row>
@@ -15435,46 +15409,46 @@
       <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="9">
         <v>1974</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="10">
         <v>828432.92099999997</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="10">
         <v>300930.53700000001</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="10">
         <v>320065.08799999999</v>
       </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14">
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
         <v>113975.74</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="10">
         <v>304211.80499999999</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="10">
         <v>68.522999999999996</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="10">
         <v>182.154</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="10">
         <v>2452.636</v>
       </c>
-      <c r="N26" s="14">
-        <v>0</v>
-      </c>
-      <c r="O26" s="14">
-        <v>0</v>
-      </c>
-      <c r="P26" s="14">
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
         <v>1870319.4040000001</v>
       </c>
     </row>
@@ -15485,46 +15459,46 @@
       <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="9">
         <v>1975</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="10">
         <v>852786.22199999995</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="10">
         <v>289094.90000000002</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="10">
         <v>299778.408</v>
       </c>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
         <v>172505.07500000001</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="10">
         <v>303152.67300000001</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="10">
         <v>17.550999999999998</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="10">
         <v>173.56800000000001</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="10">
         <v>3246.172</v>
       </c>
-      <c r="N27" s="14">
-        <v>0</v>
-      </c>
-      <c r="O27" s="14">
-        <v>0</v>
-      </c>
-      <c r="P27" s="14">
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
         <v>1920754.5689999999</v>
       </c>
     </row>
@@ -15535,46 +15509,46 @@
       <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="9">
         <v>1976</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="10">
         <v>944390.99300000002</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="10">
         <v>319988.136</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="10">
         <v>294623.91100000002</v>
       </c>
-      <c r="H28" s="14">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14">
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
         <v>191103.53099999999</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="10">
         <v>286924.23800000001</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="10">
         <v>84.385999999999996</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="10">
         <v>182.078</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="10">
         <v>3616.4070000000002</v>
       </c>
-      <c r="N28" s="14">
-        <v>0</v>
-      </c>
-      <c r="O28" s="14">
-        <v>0</v>
-      </c>
-      <c r="P28" s="14">
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
         <v>2040913.6810000001</v>
       </c>
     </row>
@@ -15585,46 +15559,46 @@
       <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="9">
         <v>1977</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="10">
         <v>985218.59600000002</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="10">
         <v>358178.82199999999</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="10">
         <v>305504.859</v>
       </c>
-      <c r="H29" s="14">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14">
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
         <v>250883.283</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="10">
         <v>223598.68700000001</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="10">
         <v>307.63400000000001</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="10">
         <v>173.27099999999999</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="10">
         <v>3582.335</v>
       </c>
-      <c r="N29" s="14">
-        <v>0</v>
-      </c>
-      <c r="O29" s="14">
-        <v>0</v>
-      </c>
-      <c r="P29" s="14">
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
         <v>2127447.4879999999</v>
       </c>
     </row>
@@ -15635,46 +15609,46 @@
       <c r="B30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="9">
         <v>1978</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="10">
         <v>975742.08299999998</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="10">
         <v>365060.44099999999</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="10">
         <v>305390.83600000001</v>
       </c>
-      <c r="H30" s="14">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14">
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
         <v>276403.07</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="10">
         <v>283465.22399999999</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="10">
         <v>197.19300000000001</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="10">
         <v>140.434</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="10">
         <v>2977.63</v>
       </c>
-      <c r="N30" s="14">
-        <v>0</v>
-      </c>
-      <c r="O30" s="14">
-        <v>0</v>
-      </c>
-      <c r="P30" s="14">
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
         <v>2209376.9109999998</v>
       </c>
     </row>
@@ -15685,46 +15659,46 @@
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="9">
         <v>1979</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="10">
         <v>1075037.091</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="10">
         <v>303525.20899999997</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="10">
         <v>329485.10700000002</v>
       </c>
-      <c r="H31" s="14">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14">
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
         <v>255154.62299999999</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="10">
         <v>283075.97600000002</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="10">
         <v>299.85899999999998</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="10">
         <v>198.19200000000001</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="10">
         <v>3888.9679999999998</v>
       </c>
-      <c r="N31" s="14">
-        <v>0</v>
-      </c>
-      <c r="O31" s="14">
-        <v>0</v>
-      </c>
-      <c r="P31" s="14">
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
         <v>2250665.0249999999</v>
       </c>
     </row>
@@ -15735,46 +15709,46 @@
       <c r="B32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="9">
         <v>1980</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="10">
         <v>1161562.368</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="10">
         <v>245994.18900000001</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="10">
         <v>346239.9</v>
       </c>
-      <c r="H32" s="14">
-        <v>0</v>
-      </c>
-      <c r="I32" s="14">
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
         <v>251115.57500000001</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="10">
         <v>279182.09000000003</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="10">
         <v>275.36599999999999</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="10">
         <v>157.797</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="10">
         <v>5073.0789999999997</v>
       </c>
-      <c r="N32" s="14">
-        <v>0</v>
-      </c>
-      <c r="O32" s="14">
-        <v>0</v>
-      </c>
-      <c r="P32" s="14">
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
         <v>2289600.3640000001</v>
       </c>
     </row>
@@ -15785,46 +15759,46 @@
       <c r="B33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>1981</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="10">
         <v>1203203.2320000001</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="10">
         <v>206420.77499999999</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="10">
         <v>345777.17300000001</v>
       </c>
-      <c r="H33" s="14">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14">
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
         <v>272673.50300000003</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="10">
         <v>263844.66399999999</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="10">
         <v>245.20099999999999</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="10">
         <v>122.628</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="10">
         <v>5686.1629999999996</v>
       </c>
-      <c r="N33" s="14">
-        <v>0</v>
-      </c>
-      <c r="O33" s="14">
-        <v>0</v>
-      </c>
-      <c r="P33" s="14">
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
         <v>2297973.338</v>
       </c>
     </row>
@@ -15835,46 +15809,46 @@
       <c r="B34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="9">
         <v>1982</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="10">
         <v>1192004.2039999999</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="10">
         <v>146797.49</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="10">
         <v>305259.74900000001</v>
       </c>
-      <c r="H34" s="14">
-        <v>0</v>
-      </c>
-      <c r="I34" s="14">
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
         <v>282773.24800000002</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="10">
         <v>312374.01299999998</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="10">
         <v>195.94</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="10">
         <v>124.979</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="10">
         <v>4842.8649999999998</v>
       </c>
-      <c r="N34" s="14">
-        <v>0</v>
-      </c>
-      <c r="O34" s="14">
-        <v>0</v>
-      </c>
-      <c r="P34" s="14">
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
         <v>2244372.4870000002</v>
       </c>
     </row>
@@ -15885,46 +15859,46 @@
       <c r="B35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="9">
         <v>1983</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="10">
         <v>1259424.2790000001</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="10">
         <v>144498.59299999999</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="10">
         <v>274098.45799999998</v>
       </c>
-      <c r="H35" s="14">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14">
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
         <v>293677.11900000001</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="10">
         <v>335290.85499999998</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="10">
         <v>215.86699999999999</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="10">
         <v>162.745</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="10">
         <v>6075.1009999999997</v>
       </c>
-      <c r="N35" s="14">
-        <v>0</v>
-      </c>
-      <c r="O35" s="14">
+      <c r="N35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="10">
         <v>2.6680000000000001</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="10">
         <v>2313445.6860000002</v>
       </c>
     </row>
@@ -15935,46 +15909,46 @@
       <c r="B36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <v>1984</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="10">
         <v>1341680.7520000001</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="10">
         <v>119807.913</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="10">
         <v>297393.59600000002</v>
       </c>
-      <c r="H36" s="14">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14">
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
         <v>327633.549</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="10">
         <v>324311.36499999999</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="10">
         <v>461.411</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="10">
         <v>424.54</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="10">
         <v>7740.5039999999999</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="10">
         <v>5.2480000000000002</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="10">
         <v>6.49</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="10">
         <v>2419465.3670000001</v>
       </c>
     </row>
@@ -15985,46 +15959,46 @@
       <c r="B37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>1985</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="10">
         <v>1402128.125</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="10">
         <v>100202.273</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="10">
         <v>291945.96500000003</v>
       </c>
-      <c r="H37" s="14">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14">
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
         <v>383690.72700000001</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="10">
         <v>284310.538</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="10">
         <v>743.29399999999998</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="10">
         <v>639.57799999999997</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="10">
         <v>9325.23</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="10">
         <v>10.63</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="10">
         <v>5.7619999999999996</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="10">
         <v>2473002.12</v>
       </c>
     </row>
@@ -16035,46 +16009,46 @@
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>1986</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="10">
         <v>1385831.452</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="10">
         <v>136584.867</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="10">
         <v>248508.43299999999</v>
       </c>
-      <c r="H38" s="14">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14">
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
         <v>414038.06300000002</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="10">
         <v>294005.21899999998</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="10">
         <v>491.50900000000001</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="10">
         <v>685.23400000000004</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="10">
         <v>10307.954</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="10">
         <v>14.032</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="10">
         <v>4.1890000000000001</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="10">
         <v>2490470.952</v>
       </c>
     </row>
@@ -16085,46 +16059,46 @@
       <c r="B39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="9">
         <v>1987</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="10">
         <v>1463781.2890000001</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="10">
         <v>118492.571</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="10">
         <v>272620.80300000001</v>
       </c>
-      <c r="H39" s="14">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14">
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
         <v>455270.38199999998</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="10">
         <v>252856.09299999999</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="10">
         <v>783.08799999999997</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="10">
         <v>693.94100000000003</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="10">
         <v>10775.460999999999</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="10">
         <v>10.497</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="10">
         <v>3.5409999999999999</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="10">
         <v>2575287.6669999999</v>
       </c>
     </row>
@@ -16135,46 +16109,46 @@
       <c r="B40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="9">
         <v>1988</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="10">
         <v>1540652.774</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="10">
         <v>148899.56099999999</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="10">
         <v>252800.704</v>
       </c>
-      <c r="H40" s="14">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14">
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
         <v>526973.04700000002</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="10">
         <v>226100.80300000001</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="10">
         <v>935.98599999999999</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="10">
         <v>738.25800000000004</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="10">
         <v>10300.079</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="10">
         <v>9.0939999999999994</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="10">
         <v>0.871</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="10">
         <v>2707411.1779999998</v>
       </c>
     </row>
@@ -16185,46 +16159,46 @@
       <c r="B41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="9">
         <v>1989</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="10">
         <v>1583779.139</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="10">
         <v>164358.51999999999</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="10">
         <v>352628.86599999998</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="10">
         <v>7862.4179999999997</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="10">
         <v>529354.71699999995</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="10">
         <v>271976.93599999999</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="10">
         <v>27236.668000000001</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="10">
         <v>9162.8870000000006</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="10">
         <v>14593.442999999999</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="10">
         <v>250.601</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="10">
         <v>2112.0430000000001</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="10">
         <v>2967146.0869999998</v>
       </c>
     </row>
@@ -16235,46 +16209,46 @@
       <c r="B42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="9">
         <v>1990</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="10">
         <v>1594011.4790000001</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="10">
         <v>126460.202</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="10">
         <v>372765.15399999998</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="10">
         <v>10382.83</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="10">
         <v>576861.67799999996</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="10">
         <v>292865.84600000002</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="10">
         <v>32521.888999999999</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="10">
         <v>13260.379000000001</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="10">
         <v>15434.271000000001</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="10">
         <v>367.08699999999999</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="10">
         <v>2788.6</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="10">
         <v>3037827.3369999998</v>
       </c>
     </row>
@@ -16285,46 +16259,46 @@
       <c r="B43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="9">
         <v>1991</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="10">
         <v>1590622.7479999999</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="10">
         <v>119751.573</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="10">
         <v>381553.01699999999</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="10">
         <v>11335.593000000001</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="10">
         <v>612565.08700000006</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="10">
         <v>288994.18900000001</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="10">
         <v>33725.358</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="10">
         <v>15664.745999999999</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="10">
         <v>15966.444</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="10">
         <v>471.76499999999999</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43" s="10">
         <v>2950.951</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="10">
         <v>3073798.8849999998</v>
       </c>
     </row>
@@ -16335,46 +16309,46 @@
       <c r="B44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="9">
         <v>1992</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="10">
         <v>1621206.0390000001</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="10">
         <v>100154.163</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="10">
         <v>404074.37199999997</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="10">
         <v>13270.236999999999</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="10">
         <v>618776.26300000004</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="10">
         <v>253088.003</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="10">
         <v>36528.661999999997</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="10">
         <v>17816.035</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="10">
         <v>16137.962</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="10">
         <v>399.64</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="10">
         <v>2887.5230000000001</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="10">
         <v>3083882.2039999999</v>
       </c>
     </row>
@@ -16385,46 +16359,46 @@
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="9">
         <v>1993</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="10">
         <v>1690070.2320000001</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="10">
         <v>112788.18</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="10">
         <v>414926.79800000001</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="10">
         <v>12955.798000000001</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="10">
         <v>610291.21400000004</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="10">
         <v>280494.00799999997</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="10">
         <v>37623.406999999999</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="10">
         <v>18333.030999999999</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="10">
         <v>16788.564999999999</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="10">
         <v>462.452</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="10">
         <v>3005.8270000000002</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="10">
         <v>3197191.0959999999</v>
       </c>
     </row>
@@ -16435,46 +16409,46 @@
       <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="9">
         <v>1994</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="10">
         <v>1690693.8640000001</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="10">
         <v>105900.98299999999</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="10">
         <v>460218.68199999997</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="10">
         <v>13319.050999999999</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="10">
         <v>640439.83200000005</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="10">
         <v>260125.73300000001</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="10">
         <v>37937.364000000001</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="10">
         <v>19128.595000000001</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="10">
         <v>15535.453</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="10">
         <v>486.62200000000001</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="10">
         <v>3447.1089999999999</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="10">
         <v>3247522.3879999998</v>
       </c>
     </row>
@@ -16485,46 +16459,46 @@
       <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="9">
         <v>1995</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="10">
         <v>1709426.4680000001</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="10">
         <v>74554.065000000002</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="10">
         <v>496057.94500000001</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="10">
         <v>13869.950999999999</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="10">
         <v>673402.12300000002</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="10">
         <v>310832.74800000002</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="10">
         <v>36521.082000000002</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="10">
         <v>20404.971000000001</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="10">
         <v>13378.258</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="10">
         <v>496.82100000000003</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="10">
         <v>3164.2530000000002</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="10">
         <v>3353487.3620000002</v>
       </c>
     </row>
@@ -16535,46 +16509,46 @@
       <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="9">
         <v>1996</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="10">
         <v>1795195.5930000001</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="10">
         <v>81411.225000000006</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="10">
         <v>455055.576</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="10">
         <v>14355.813</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="10">
         <v>674728.54599999997</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="10">
         <v>347162.06300000002</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="10">
         <v>36800.31</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="10">
         <v>20911.335999999999</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="10">
         <v>14328.683999999999</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="10">
         <v>521.20500000000004</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="10">
         <v>3234.069</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P48" s="10">
         <v>3444187.6209999998</v>
       </c>
     </row>
@@ -16585,46 +16559,46 @@
       <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="9">
         <v>1997</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="10">
         <v>1845015.736</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="10">
         <v>92554.873000000007</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="10">
         <v>479398.67</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="10">
         <v>13350.634</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="10">
         <v>628644.17099999997</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="10">
         <v>356453.29499999998</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="10">
         <v>36948.440999999999</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="10">
         <v>21709.073</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="10">
         <v>14726.102000000001</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="10">
         <v>511.16800000000001</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49" s="10">
         <v>3288.0349999999999</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P49" s="10">
         <v>3492172.2829999998</v>
       </c>
     </row>
@@ -16635,46 +16609,46 @@
       <c r="B50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="9">
         <v>1998</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="10">
         <v>1873515.69</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="10">
         <v>128800.173</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="10">
         <v>531257.10400000005</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="10">
         <v>13492.23</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="10">
         <v>673702.10400000005</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="10">
         <v>323335.66100000002</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="10">
         <v>36338.383999999998</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="10">
         <v>22447.935000000001</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="10">
         <v>14773.918</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N50" s="10">
         <v>502.47300000000001</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50" s="10">
         <v>3025.6959999999999</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P50" s="10">
         <v>3620295.4980000001</v>
       </c>
     </row>
@@ -16685,46 +16659,46 @@
       <c r="B51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="9">
         <v>1999</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="10">
         <v>1881087.2239999999</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="10">
         <v>118060.838</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="10">
         <v>556396.12699999998</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="10">
         <v>14125.592000000001</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="10">
         <v>728254.12399999995</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="10">
         <v>319536.02899999998</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="10">
         <v>37040.733999999997</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="10">
         <v>22572.174999999999</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="10">
         <v>14827.013000000001</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="10">
         <v>495.08199999999999</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O51" s="10">
         <v>4487.9979999999996</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="10">
         <v>3694809.81</v>
       </c>
     </row>
@@ -16735,46 +16709,46 @@
       <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="9">
         <v>2000</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="10">
         <v>1966264.5959999999</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="10">
         <v>111220.965</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="10">
         <v>601038.15899999999</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="10">
         <v>13954.758</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="10">
         <v>753892.94</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="10">
         <v>275572.59700000001</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="10">
         <v>37594.866000000002</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="10">
         <v>23131.313999999998</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="10">
         <v>14093.157999999999</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N52" s="10">
         <v>493.375</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O52" s="10">
         <v>5593.2610000000004</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P52" s="10">
         <v>3802105.0430000001</v>
       </c>
     </row>
@@ -16785,46 +16759,46 @@
       <c r="B53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="9">
         <v>2001</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="10">
         <v>1903955.942</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="10">
         <v>124880.22100000001</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="10">
         <v>639129.11899999995</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="10">
         <v>9039.473</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="10">
         <v>768826.30799999996</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="10">
         <v>216961.04500000001</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="10">
         <v>35199.904999999999</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="10">
         <v>14548.152</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53" s="10">
         <v>13740.501</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N53" s="10">
         <v>542.755</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O53" s="10">
         <v>6737.3310000000001</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P53" s="10">
         <v>3736643.6490000002</v>
       </c>
     </row>
@@ -16835,46 +16809,46 @@
       <c r="B54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="9">
         <v>2002</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="10">
         <v>1933130.3540000001</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="10">
         <v>94567.395000000004</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="10">
         <v>691005.74399999995</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="10">
         <v>11462.683999999999</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="10">
         <v>780064.08700000006</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="10">
         <v>264328.83100000001</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="10">
         <v>38665.036999999997</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="10">
         <v>15043.712</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54" s="10">
         <v>14491.31</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N54" s="10">
         <v>554.83100000000002</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O54" s="10">
         <v>10354.280000000001</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P54" s="10">
         <v>3858452.2459999998</v>
       </c>
     </row>
@@ -16885,46 +16859,46 @@
       <c r="B55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="9">
         <v>2003</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="10">
         <v>1973736.7520000001</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="10">
         <v>119405.643</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="10">
         <v>649907.53899999999</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="10">
         <v>15600.022000000001</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="10">
         <v>763732.69499999995</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="10">
         <v>275806.32299999997</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="10">
         <v>37529.095999999998</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="10">
         <v>15811.992</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55" s="10">
         <v>14424.231</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N55" s="10">
         <v>534.00099999999998</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O55" s="10">
         <v>11187.466</v>
       </c>
-      <c r="P55" s="14">
+      <c r="P55" s="10">
         <v>3883185.2039999999</v>
       </c>
     </row>
@@ -16935,46 +16909,46 @@
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="9">
         <v>2004</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="10">
         <v>1978300.5490000001</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="10">
         <v>121145.057</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="10">
         <v>710100.01699999999</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="10">
         <v>15252.431</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="10">
         <v>788528.38699999999</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="10">
         <v>268417.30800000002</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="10">
         <v>38116.883000000002</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="10">
         <v>15420.57</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56" s="10">
         <v>14810.975</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N56" s="10">
         <v>575.15499999999997</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O56" s="10">
         <v>14143.741</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P56" s="10">
         <v>3970555.264</v>
       </c>
     </row>
@@ -16985,46 +16959,46 @@
       <c r="B57" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="9">
         <v>2005</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="10">
         <v>2012873.0460000001</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="10">
         <v>122225.01700000001</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="10">
         <v>760960.25399999996</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="10">
         <v>13464.144</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="10">
         <v>781986.36499999999</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="10">
         <v>270321.255</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="10">
         <v>38856.417000000001</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="10">
         <v>15420.393</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57" s="10">
         <v>14691.745000000001</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="10">
         <v>550.29399999999998</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O57" s="10">
         <v>17810.548999999999</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P57" s="10">
         <v>4055422.75</v>
       </c>
     </row>
@@ -17035,46 +17009,46 @@
       <c r="B58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="9">
         <v>2006</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="10">
         <v>1990511.135</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="10">
         <v>64166.413999999997</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="10">
         <v>816440.77</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="10">
         <v>14176.808000000001</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="10">
         <v>787218.63600000006</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="10">
         <v>289246.41600000003</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="10">
         <v>38762.095999999998</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="10">
         <v>16098.525</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="10">
         <v>14568.029</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N58" s="10">
         <v>507.70600000000002</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O58" s="10">
         <v>26589.136999999999</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P58" s="10">
         <v>4064702.2280000001</v>
       </c>
     </row>
@@ -17085,46 +17059,46 @@
       <c r="B59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="9">
         <v>2007</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="10">
         <v>2016455.584</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="10">
         <v>65738.978000000003</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="10">
         <v>896589.79099999997</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="10">
         <v>13453.353999999999</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="10">
         <v>806424.75300000003</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="10">
         <v>247509.97399999999</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="10">
         <v>39014.023999999998</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="10">
         <v>16524.554</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="10">
         <v>14637.213</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N59" s="10">
         <v>611.79300000000001</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O59" s="10">
         <v>34449.927000000003</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P59" s="10">
         <v>4156744.7239999999</v>
       </c>
     </row>
@@ -17135,46 +17109,46 @@
       <c r="B60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="9">
         <v>2008</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="10">
         <v>1985801.247</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="10">
         <v>46242.612000000001</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="10">
         <v>882980.59900000005</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="10">
         <v>11706.876</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="10">
         <v>806208.43500000006</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="10">
         <v>254831.38500000001</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="10">
         <v>37299.853000000003</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="10">
         <v>17733.758999999998</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="10">
         <v>14839.977000000001</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N60" s="10">
         <v>864.31500000000005</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O60" s="10">
         <v>55363.1</v>
       </c>
-      <c r="P60" s="14">
+      <c r="P60" s="10">
         <v>4119387.76</v>
       </c>
     </row>
@@ -17185,46 +17159,46 @@
       <c r="B61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="9">
         <v>2009</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="10">
         <v>1755904.253</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="10">
         <v>38936.514999999999</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="10">
         <v>920978.68099999998</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="10">
         <v>10632.107</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="10">
         <v>798854.58499999996</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="10">
         <v>273445.09399999998</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="10">
         <v>36050.137999999999</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="10">
         <v>18442.596000000001</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61" s="10">
         <v>15008.657999999999</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N61" s="10">
         <v>891.17899999999997</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O61" s="10">
         <v>73886.131999999998</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P61" s="10">
         <v>3950330.9270000001</v>
       </c>
     </row>
@@ -17235,46 +17209,46 @@
       <c r="B62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="9">
         <v>2010</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="10">
         <v>1847290.2790000001</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="10">
         <v>37061.012999999999</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="10">
         <v>987697.23400000005</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="10">
         <v>11312.787</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="10">
         <v>806968.30099999998</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="10">
         <v>260203.06899999999</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62" s="10">
         <v>37172.160000000003</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L62" s="10">
         <v>18917.206999999999</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M62" s="10">
         <v>15219.213</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N62" s="10">
         <v>1212.182</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O62" s="10">
         <v>94652.245999999999</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P62" s="10">
         <v>4125059.9</v>
       </c>
     </row>
@@ -17285,46 +17259,46 @@
       <c r="B63" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="9">
         <v>2011</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="10">
         <v>1733430.0049999999</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="10">
         <v>30182.244999999999</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="10">
         <v>1013688.929</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="10">
         <v>11566.2</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="10">
         <v>790204.36699999997</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="10">
         <v>319354.90399999998</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="10">
         <v>37449.067000000003</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="10">
         <v>19221.762999999999</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63" s="10">
         <v>15316.067999999999</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N63" s="10">
         <v>1817.6959999999999</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O63" s="10">
         <v>120176.599</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P63" s="10">
         <v>4100140.9270000001</v>
       </c>
     </row>
@@ -17335,46 +17309,46 @@
       <c r="B64" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="9">
         <v>2012</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="10">
         <v>1514042.9450000001</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="10">
         <v>23189.542000000001</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="10">
         <v>1225894.175</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="10">
         <v>11897.584999999999</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="10">
         <v>769331.24899999995</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="10">
         <v>276240.223</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="10">
         <v>37799.129000000001</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="10">
         <v>19823.037</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M64" s="10">
         <v>15562.425999999999</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N64" s="10">
         <v>4326.6750000000002</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O64" s="10">
         <v>140821.70300000001</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P64" s="10">
         <v>4047765.26</v>
       </c>
     </row>
@@ -17385,46 +17359,46 @@
       <c r="B65" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="9">
         <v>2013</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="10">
         <v>1581114.716</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="10">
         <v>27164.444</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="10">
         <v>1124835.56</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="10">
         <v>12852.937</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="10">
         <v>789016.473</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="10">
         <v>268565.38299999997</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="10">
         <v>40027.536999999997</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="10">
         <v>20830.490000000002</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65" s="10">
         <v>15774.674000000001</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N65" s="10">
         <v>9035.6200000000008</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O65" s="10">
         <v>167839.745</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P65" s="10">
         <v>4065964.068</v>
       </c>
     </row>
@@ -17435,46 +17409,46 @@
       <c r="B66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="9">
         <v>2014</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="10">
         <v>1581710.35</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="10">
         <v>30231.862000000001</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="10">
         <v>1126635.1159999999</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="10">
         <v>12021.786</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="10">
         <v>797165.98199999996</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="10">
         <v>259366.622</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K66" s="10">
         <v>42339.724999999999</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="10">
         <v>21649.719000000001</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M66" s="10">
         <v>15876.941000000001</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N66" s="10">
         <v>17691.030999999999</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O66" s="10">
         <v>181655.28200000001</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P66" s="10">
         <v>4093564.1430000002</v>
       </c>
     </row>
@@ -17485,46 +17459,46 @@
       <c r="B67" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="9">
         <v>2015</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="10">
         <v>1352398.1969999999</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="10">
         <v>28248.749</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="10">
         <v>1334668.003</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="10">
         <v>13116.698</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="10">
         <v>797177.87699999998</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="10">
         <v>249080.08499999999</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="10">
         <v>41928.506000000001</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="10">
         <v>21703.371999999999</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M67" s="10">
         <v>15917.575000000001</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N67" s="10">
         <v>24892.903999999999</v>
       </c>
-      <c r="O67" s="14">
+      <c r="O67" s="10">
         <v>190718.54800000001</v>
       </c>
-      <c r="P67" s="14">
+      <c r="P67" s="10">
         <v>4078713.773</v>
       </c>
     </row>
@@ -17535,46 +17509,46 @@
       <c r="B68" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="9">
         <v>2016</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="10">
         <v>1239148.6540000001</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="10">
         <v>24204.806</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="10">
         <v>1379270.922</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="10">
         <v>12807.432000000001</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="10">
         <v>805693.94799999997</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="10">
         <v>267812.15299999999</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="10">
         <v>40947.226999999999</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="10">
         <v>21813.231</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M68" s="10">
         <v>15825.807000000001</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N68" s="10">
         <v>36054.120999999999</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O68" s="10">
         <v>226992.56200000001</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P68" s="10">
         <v>4077573.801</v>
       </c>
     </row>
@@ -17585,46 +17559,46 @@
       <c r="B69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="9">
         <v>2017</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="10">
         <v>1205835.2760000001</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="10">
         <v>21389.945</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="10">
         <v>1297702.5279999999</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="10">
         <v>12468.967000000001</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="10">
         <v>804949.63500000001</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="10">
         <v>300332.93</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="10">
         <v>41123.517999999996</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="10">
         <v>21609.894</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M69" s="10">
         <v>15926.773999999999</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N69" s="10">
         <v>53286.864999999998</v>
       </c>
-      <c r="O69" s="14">
+      <c r="O69" s="10">
         <v>254302.69500000001</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P69" s="10">
         <v>4035442.895</v>
       </c>
     </row>
@@ -17635,46 +17609,46 @@
       <c r="B70" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="9">
         <v>2018</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="10">
         <v>1149487.3389999999</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="10">
         <v>25225.628000000001</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="10">
         <v>1471843.031</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="10">
         <v>13462.749</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="10">
         <v>807084.47699999996</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="10">
         <v>292523.989</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K70" s="10">
         <v>40936.159</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="10">
         <v>20895.764999999999</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M70" s="10">
         <v>15967.134</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N70" s="10">
         <v>63825.315000000002</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O70" s="10">
         <v>272667.45400000003</v>
       </c>
-      <c r="P70" s="14">
+      <c r="P70" s="10">
         <v>4180987.7030000002</v>
       </c>
     </row>
@@ -17685,46 +17659,46 @@
       <c r="B71" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="9">
         <v>2019</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="10">
         <v>964956.81200000003</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="10">
         <v>18340.742999999999</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="10">
         <v>1588532.84</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="10">
         <v>12591.093999999999</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I71" s="10">
         <v>809409.26199999999</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="10">
         <v>287873.73100000003</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K71" s="10">
         <v>38543.381999999998</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L71" s="10">
         <v>18963.571</v>
       </c>
-      <c r="M71" s="14">
+      <c r="M71" s="10">
         <v>15472.717000000001</v>
       </c>
-      <c r="N71" s="14">
+      <c r="N71" s="10">
         <v>71936.822</v>
       </c>
-      <c r="O71" s="14">
+      <c r="O71" s="10">
         <v>295882.484</v>
       </c>
-      <c r="P71" s="14">
+      <c r="P71" s="10">
         <v>4130573.88</v>
       </c>
     </row>
@@ -17735,46 +17709,46 @@
       <c r="B72" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="9">
         <v>2020</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="10">
         <v>773392.897</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="10">
         <v>17341.014999999999</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="10">
         <v>1626789.64</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="10">
         <v>11818.477999999999</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I72" s="10">
         <v>789878.86300000001</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="10">
         <v>285273.89500000002</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K72" s="10">
         <v>36218.942999999999</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="10">
         <v>18492.673999999999</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M72" s="10">
         <v>15889.697</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N72" s="10">
         <v>89198.714999999997</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O72" s="10">
         <v>337938.049</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P72" s="10">
         <v>4009766.8459999999</v>
       </c>
     </row>
@@ -17785,46 +17759,46 @@
       <c r="B73" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="9">
         <v>2021</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="10">
         <v>898678.52500000002</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="10">
         <v>18781.781999999999</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="10">
         <v>1575229.808</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="10">
         <v>11283.102999999999</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I73" s="10">
         <v>778151.5</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="10">
         <v>260224.88500000001</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K73" s="10">
         <v>37170.453000000001</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L73" s="10">
         <v>18308.653999999999</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M73" s="10">
         <v>16237.884</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N73" s="10">
         <v>114678.239</v>
       </c>
-      <c r="O73" s="14">
+      <c r="O73" s="10">
         <v>379767.24699999997</v>
       </c>
-      <c r="P73" s="14">
+      <c r="P73" s="10">
         <v>4115540.1540000001</v>
       </c>
     </row>
@@ -17838,8 +17812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EFD0DC-091E-497D-A6DB-8615CC46A695}">
   <dimension ref="A1:BY24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19257,291 +19231,219 @@
         <v>120</v>
       </c>
       <c r="E8" s="3">
-        <f>E26+'[1]BTM Solar'!BD10</f>
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f>F26+'[1]BTM Solar'!BE10</f>
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f>G26+'[1]BTM Solar'!BF10</f>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f>H26+'[1]BTM Solar'!BG10</f>
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f>I26+'[1]BTM Solar'!BH10</f>
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>J26+'[1]BTM Solar'!BI10</f>
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f>K26+'[1]BTM Solar'!BJ10</f>
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <f>L26+'[1]BTM Solar'!BK10</f>
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <f>M26+'[1]BTM Solar'!BL10</f>
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f>N26+'[1]BTM Solar'!BM10</f>
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <f>O26+'[1]BTM Solar'!BN10</f>
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <f>P26+'[1]BTM Solar'!BO10</f>
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <f>Q26+'[1]BTM Solar'!BP10</f>
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <f>R26+'[1]BTM Solar'!BQ10</f>
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <f>S26+'[1]BTM Solar'!BR10</f>
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <f>T26+'[1]BTM Solar'!BS10</f>
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <f>U26+'[1]BTM Solar'!BT10</f>
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <f>V26+'[1]BTM Solar'!BU10</f>
         <v>0</v>
       </c>
       <c r="W8" s="3">
-        <f>W26+'[1]BTM Solar'!BV10</f>
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <f>X26+'[1]BTM Solar'!BW10</f>
         <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <f>Y26+'[1]BTM Solar'!BX10</f>
         <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <f>Z26+'[1]BTM Solar'!BY10</f>
         <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <f>AA26+'[1]BTM Solar'!BZ10</f>
         <v>0</v>
       </c>
       <c r="AB8" s="3">
-        <f>AB26+'[1]BTM Solar'!CA10</f>
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <f>AC26+'[1]BTM Solar'!CB10</f>
         <v>0</v>
       </c>
       <c r="AD8" s="3">
-        <f>AD26+'[1]BTM Solar'!CC10</f>
         <v>0</v>
       </c>
       <c r="AE8" s="3">
-        <f>AE26+'[1]BTM Solar'!CD10</f>
         <v>0</v>
       </c>
       <c r="AF8" s="3">
-        <f>AF26+'[1]BTM Solar'!CE10</f>
         <v>0</v>
       </c>
       <c r="AG8" s="3">
-        <f>AG26+'[1]BTM Solar'!CF10</f>
         <v>0</v>
       </c>
       <c r="AH8" s="3">
-        <f>AH26+'[1]BTM Solar'!CG10</f>
         <v>0</v>
       </c>
       <c r="AI8" s="3">
-        <f>AI26+'[1]BTM Solar'!CH10</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="3">
-        <f>AJ26+'[1]BTM Solar'!CI10</f>
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f>AK26+'[1]BTM Solar'!CJ10</f>
         <v>0</v>
       </c>
       <c r="AL8" s="3">
-        <f>AL26+'[1]BTM Solar'!CK10</f>
         <v>0</v>
       </c>
       <c r="AM8" s="3">
-        <f>AM26+'[1]BTM Solar'!CL10</f>
         <v>0</v>
       </c>
       <c r="AN8" s="3">
-        <f>AN26+'[1]BTM Solar'!CM10</f>
         <v>0</v>
       </c>
       <c r="AO8" s="3">
-        <f>AO26+'[1]BTM Solar'!CN10</f>
         <v>0</v>
       </c>
       <c r="AP8" s="3">
-        <f>AP26+'[1]BTM Solar'!CO10</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="3">
-        <f>AQ26+'[1]BTM Solar'!CP10</f>
         <v>0</v>
       </c>
       <c r="AR8" s="3">
-        <f>AR26+'[1]BTM Solar'!CQ10</f>
         <v>0</v>
       </c>
       <c r="AS8" s="3">
-        <f>AS26+'[1]BTM Solar'!CR10</f>
         <v>0</v>
       </c>
       <c r="AT8" s="3">
-        <f>AT26+'[1]BTM Solar'!CS10</f>
         <v>0</v>
       </c>
       <c r="AU8" s="3">
-        <f>AU26+'[1]BTM Solar'!CT10</f>
         <v>0</v>
       </c>
       <c r="AV8" s="3">
-        <f>AV26+'[1]BTM Solar'!CU10</f>
         <v>0</v>
       </c>
       <c r="AW8" s="3">
-        <f>AW26+'[1]BTM Solar'!CV10</f>
         <v>0</v>
       </c>
       <c r="AX8" s="3">
-        <f>AX26+'[1]BTM Solar'!CW10</f>
         <v>0</v>
       </c>
       <c r="AY8" s="3">
-        <f>AY26+'[1]BTM Solar'!CX10</f>
         <v>0</v>
       </c>
       <c r="AZ8" s="3">
-        <f>AZ26+'[1]BTM Solar'!CY10</f>
         <v>0</v>
       </c>
       <c r="BA8" s="3">
-        <f>BA26+'[1]BTM Solar'!CZ10</f>
         <v>0</v>
       </c>
       <c r="BB8" s="3">
-        <f>BB26+'[1]BTM Solar'!DA10</f>
         <v>0</v>
       </c>
       <c r="BC8" s="3">
-        <f>BC26+'[1]BTM Solar'!DB10</f>
         <v>0</v>
       </c>
       <c r="BD8" s="3">
-        <f>BD26+'[1]BTM Solar'!DC10</f>
         <v>0</v>
       </c>
       <c r="BE8" s="3">
-        <f>BE26+'[1]BTM Solar'!DD10</f>
         <v>0</v>
       </c>
       <c r="BF8" s="3">
-        <f>BF26+'[1]BTM Solar'!DE10</f>
         <v>0</v>
       </c>
       <c r="BG8" s="3">
-        <f>BG26+'[1]BTM Solar'!DF10</f>
         <v>0</v>
       </c>
       <c r="BH8" s="3">
-        <f>BH26+'[1]BTM Solar'!DG10</f>
         <v>0</v>
       </c>
       <c r="BI8" s="3">
-        <f>BI26+'[1]BTM Solar'!DH10</f>
         <v>0</v>
       </c>
       <c r="BJ8" s="3">
-        <f>BJ26+'[1]BTM Solar'!DI10</f>
         <v>0</v>
       </c>
       <c r="BK8" s="3">
-        <f>BK26+'[1]BTM Solar'!DJ10</f>
         <v>0</v>
       </c>
       <c r="BL8" s="3">
-        <f>BL26+'[1]BTM Solar'!DK10</f>
         <v>0</v>
       </c>
       <c r="BM8" s="3">
-        <f>BM26+'[1]BTM Solar'!DL10</f>
         <v>0</v>
       </c>
       <c r="BN8" s="3">
-        <f>BN26+'[1]BTM Solar'!DM10</f>
         <v>0</v>
       </c>
       <c r="BO8" s="3">
-        <f>BO26+'[1]BTM Solar'!DN10</f>
         <v>0</v>
       </c>
       <c r="BP8" s="3">
-        <f>BP26+'[1]BTM Solar'!DO10</f>
         <v>0</v>
       </c>
       <c r="BQ8" s="3">
-        <f>BQ26+'[1]BTM Solar'!DP10</f>
         <v>0</v>
       </c>
       <c r="BR8" s="3">
-        <f>BR26+'[1]BTM Solar'!DQ10</f>
         <v>0</v>
       </c>
       <c r="BS8" s="3">
-        <f>BS26+'[1]BTM Solar'!DR10</f>
         <v>0</v>
       </c>
       <c r="BT8" s="3">
-        <f>BT26+'[1]BTM Solar'!DS10</f>
         <v>0</v>
       </c>
       <c r="BU8" s="3">
-        <f>BU26+'[1]BTM Solar'!DT10</f>
         <v>0</v>
       </c>
       <c r="BV8" s="3">
-        <f>BV26+'[1]BTM Solar'!DU10</f>
         <v>0</v>
       </c>
       <c r="BW8" s="3">
-        <f>BW26+'[1]BTM Solar'!DV10</f>
         <v>0</v>
       </c>
       <c r="BX8" s="3">
-        <f>BX26+'[1]BTM Solar'!DW10</f>
         <v>0</v>
       </c>
       <c r="BY8" s="3">
@@ -21222,22 +21124,22 @@
       <c r="E1" s="1">
         <v>2021</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="7">
         <v>2025</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="7">
         <v>2030</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="7">
         <v>2035</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="7">
         <v>2040</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="7">
         <v>2045</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="7">
         <v>2050</v>
       </c>
       <c r="L1" t="s">
@@ -36179,11 +36081,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0BA1F-1079-4F85-BE53-285F79BAFC0C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36228,7 +36129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -36260,7 +36161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -36292,7 +36193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -36324,7 +36225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -36388,7 +36289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -36420,7 +36321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -36443,7 +36344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -36466,7 +36367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -36489,7 +36390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -36535,7 +36436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -36558,7 +36459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -36587,7 +36488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -36616,7 +36517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -36645,7 +36546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -36688,7 +36589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -36702,7 +36603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -36734,7 +36635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -36766,7 +36667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -36798,7 +36699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -36862,7 +36763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -36894,7 +36795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -36926,7 +36827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -36958,7 +36859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -36990,7 +36891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -37054,7 +36955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -37086,7 +36987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -37109,7 +37010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -37132,7 +37033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -37155,7 +37056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -37192,7 +37093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -37215,7 +37116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
@@ -37229,7 +37130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -37243,7 +37144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
@@ -37257,7 +37158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
@@ -37297,7 +37198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -37329,7 +37230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -37361,7 +37262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -37393,7 +37294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -37425,7 +37326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -37489,7 +37390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -37521,7 +37422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -37553,7 +37454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -37585,7 +37486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -37617,7 +37518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -37681,7 +37582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -37713,7 +37614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -37745,7 +37646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>0</v>
       </c>
@@ -37777,7 +37678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -37809,7 +37710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
@@ -37873,7 +37774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
@@ -37905,7 +37806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>0</v>
       </c>
@@ -37928,7 +37829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>0</v>
       </c>
@@ -37951,7 +37852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>0</v>
       </c>
@@ -37974,7 +37875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>0</v>
       </c>
@@ -38020,7 +37921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
@@ -38043,7 +37944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>0</v>
       </c>
@@ -38072,7 +37973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>0</v>
       </c>
@@ -38101,7 +38002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>0</v>
       </c>
@@ -38130,7 +38031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
@@ -38173,7 +38074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>0</v>
       </c>
@@ -38187,7 +38088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -38219,7 +38120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>0</v>
       </c>
@@ -38251,7 +38152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
@@ -38283,7 +38184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>0</v>
       </c>
@@ -38347,7 +38248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>0</v>
       </c>
@@ -38379,7 +38280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>0</v>
       </c>
@@ -38411,7 +38312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>0</v>
       </c>
@@ -38443,7 +38344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>0</v>
       </c>
@@ -38475,7 +38376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -38539,7 +38440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>0</v>
       </c>
@@ -38571,7 +38472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>0</v>
       </c>
@@ -38594,7 +38495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>0</v>
       </c>
@@ -38617,7 +38518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>0</v>
       </c>
@@ -38640,7 +38541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>0</v>
       </c>
@@ -38677,7 +38578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>0</v>
       </c>
@@ -38700,7 +38601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -38714,7 +38615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>0</v>
       </c>
@@ -38728,7 +38629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>0</v>
       </c>
@@ -38742,7 +38643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>0</v>
       </c>
@@ -38782,7 +38683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>0</v>
       </c>
@@ -38814,7 +38715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
@@ -38846,7 +38747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>0</v>
       </c>
@@ -38878,7 +38779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
@@ -38910,7 +38811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
@@ -38974,7 +38875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>0</v>
       </c>
@@ -39006,7 +38907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
@@ -39038,7 +38939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
@@ -39070,7 +38971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>0</v>
       </c>
@@ -39102,7 +39003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>0</v>
       </c>
@@ -39166,7 +39067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>0</v>
       </c>
@@ -39198,7 +39099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>52</v>
       </c>
@@ -39227,7 +39128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>52</v>
       </c>
@@ -39256,7 +39157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>52</v>
       </c>
@@ -39285,7 +39186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>52</v>
       </c>
@@ -39343,7 +39244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>52</v>
       </c>
@@ -39372,7 +39273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>0</v>
       </c>
@@ -39401,7 +39302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>0</v>
       </c>
@@ -39430,7 +39331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>0</v>
       </c>
@@ -39459,7 +39360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>0</v>
       </c>
@@ -39517,7 +39418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>0</v>
       </c>
@@ -39547,23 +39448,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J121" xr:uid="{ADE0BA1F-1079-4F85-BE53-285F79BAFC0C}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Electricity Demand - Other"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J121" xr:uid="{ADE0BA1F-1079-4F85-BE53-285F79BAFC0C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -39984,7 +39874,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -40026,24 +39930,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40066,7 +39953,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -40085,12 +39988,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>